--- a/ПКМ/resdata PKM Temp=5, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=5, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>952.9657080173359</v>
       </c>
       <c r="E3" t="n">
-        <v>437.8694844100005</v>
+        <v>437.865119993407</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.58900124979873</v>
+        <v>13.58888412338459</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>545.9624266926711</v>
+        <v>545.9624381441208</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>970.3683936105033</v>
+        <v>970.3684163665491</v>
       </c>
       <c r="E5" t="n">
-        <v>451.4584856597992</v>
+        <v>451.4540041167916</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781442632785288</v>
+        <v>0.7781442604617002</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1201964239238175</v>
+        <v>0.1201964193458126</v>
       </c>
       <c r="H5" t="n">
-        <v>0.031961827903534</v>
+        <v>0.0319618303363218</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06313148526319848</v>
+        <v>0.06313149013900457</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006565999630921289</v>
+        <v>0.006565999717160782</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>468.3649300386127</v>
+        <v>468.3702689357435</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>881.4534214921312</v>
+        <v>881.4594936753239</v>
       </c>
       <c r="E6" t="n">
-        <v>451.4584856597992</v>
+        <v>451.4540041167916</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781442632785288</v>
+        <v>0.7781442604617002</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1201964239238175</v>
+        <v>0.1201964193458126</v>
       </c>
       <c r="H6" t="n">
-        <v>0.031961827903534</v>
+        <v>0.0319618303363218</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06313148526319848</v>
+        <v>0.06313149013900457</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006565999630921289</v>
+        <v>0.006565999717160782</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.4318565915895</v>
+        <v>291.4283860442722</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>684.6785621714822</v>
+        <v>684.674790518194</v>
       </c>
       <c r="E7" t="n">
-        <v>451.4584856597992</v>
+        <v>451.4540041167916</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781442632785288</v>
+        <v>0.7781442604617002</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1201964239238175</v>
+        <v>0.1201964193458126</v>
       </c>
       <c r="H7" t="n">
-        <v>0.031961827903534</v>
+        <v>0.0319618303363218</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06313148526319848</v>
+        <v>0.06313149013900457</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006565999630921289</v>
+        <v>0.006565999717160782</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.0907775957264</v>
+        <v>223.084814446554</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>610.7900630196282</v>
+        <v>610.7836703390209</v>
       </c>
       <c r="E8" t="n">
-        <v>451.4584856597992</v>
+        <v>451.4540041167916</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781442632785288</v>
+        <v>0.7781442604617002</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1201964239238175</v>
+        <v>0.1201964193458126</v>
       </c>
       <c r="H8" t="n">
-        <v>0.031961827903534</v>
+        <v>0.0319618303363218</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06313148526319848</v>
+        <v>0.06313149013900457</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006565999630921289</v>
+        <v>0.006565999717160782</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>222.1719454700578</v>
+        <v>222.1659859295893</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>609.8038370203287</v>
+        <v>609.79744938461</v>
       </c>
       <c r="E9" t="n">
-        <v>451.4584856597992</v>
+        <v>451.4540041167916</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781442632785288</v>
+        <v>0.7781442604617002</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1201964239238175</v>
+        <v>0.1201964193458126</v>
       </c>
       <c r="H9" t="n">
-        <v>0.031961827903534</v>
+        <v>0.0319618303363218</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06313148526319848</v>
+        <v>0.06313149013900457</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006565999630921289</v>
+        <v>0.006565999717160782</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.8685513066101</v>
+        <v>162.8622149869096</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>546.5123250659188</v>
+        <v>546.5056065532839</v>
       </c>
       <c r="E10" t="n">
-        <v>451.4584856597992</v>
+        <v>451.4540041167916</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781442632785288</v>
+        <v>0.7781442604617002</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1201964239238175</v>
+        <v>0.1201964193458126</v>
       </c>
       <c r="H10" t="n">
-        <v>0.031961827903534</v>
+        <v>0.0319618303363218</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06313148526319848</v>
+        <v>0.06313149013900457</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006565999630921289</v>
+        <v>0.006565999717160782</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.48734829941519</v>
+        <v>96.49091596377905</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>476.3945673222241</v>
+        <v>476.3983267926106</v>
       </c>
       <c r="E11" t="n">
-        <v>451.4584856597992</v>
+        <v>451.4540041167916</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781442632785288</v>
+        <v>0.7781442604617002</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1201964239238175</v>
+        <v>0.1201964193458126</v>
       </c>
       <c r="H11" t="n">
-        <v>0.031961827903534</v>
+        <v>0.0319618303363218</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06313148526319848</v>
+        <v>0.06313149013900457</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006565999630921289</v>
+        <v>0.006565999717160782</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.88113717284638</v>
+        <v>12.88102614765921</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7078640769523633</v>
+        <v>0.7078579757253848</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97397508643659</v>
+        <v>11.9739541861223</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97397508643659</v>
+        <v>11.9739541861223</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97397508643659</v>
+        <v>11.9739541861223</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97397508643659</v>
+        <v>11.9739541861223</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762719265459943</v>
+        <v>4.762710952236574</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1143,22 +1143,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944161</v>
+        <v>0.05094889585944183</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.09767435453489635</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173055</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6504746907921327</v>
+        <v>0.6504892318739794</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6820971299157907</v>
+        <v>0.6821034933346152</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9536393898511756</v>
+        <v>0.9536518112433607</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.41481395601279</v>
+        <v>56.42401922626954</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.95903398991266</v>
+        <v>33.96202771758752</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8488219069074023</v>
+        <v>0.8488228405132037</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.51228883011831</v>
+        <v>13.51250489714659</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7831102938498391</v>
+        <v>0.7831869661365564</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.273891216024991</v>
+        <v>6.276873590303527</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.6357700869134738</v>
+        <v>0.6357781784962211</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.669599919956831</v>
+        <v>2.672613021231917</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.520830388446949</v>
+        <v>0.5210692569094577</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1657627012345017</v>
+        <v>0.1658446363048901</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1843295234762808</v>
+        <v>0.1844194837919969</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8992737468657962</v>
+        <v>0.8992793651452955</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42434.13856203231</v>
+        <v>42431.64267554267</v>
       </c>
       <c r="C2" t="n">
-        <v>42862.76622427506</v>
+        <v>42860.24512681078</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91859.40781802248</v>
+        <v>91859.26150685477</v>
       </c>
       <c r="C3" t="n">
-        <v>92787.28062426513</v>
+        <v>92787.13283520684</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39995.35616391122</v>
+        <v>39986.93044843319</v>
       </c>
       <c r="C4" t="n">
-        <v>40399.34966051638</v>
+        <v>40390.8388368012</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>508.1270012617793</v>
+        <v>508.1426862773067</v>
       </c>
       <c r="C5" t="n">
-        <v>513.2595972341205</v>
+        <v>513.2754406841482</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32833.71151139471</v>
+        <v>32840.73519480137</v>
       </c>
       <c r="C6" t="n">
-        <v>33165.36516302496</v>
+        <v>33172.45979272866</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38524.97643058205</v>
+        <v>38526.75175655862</v>
       </c>
       <c r="C7" t="n">
-        <v>38914.11760664854</v>
+        <v>38915.91086521073</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.69414933726792</v>
+        <v>54.66750801239905</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.05861256124338</v>
+        <v>68.0831154937558</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.873526549073343</v>
+        <v>5.875664941429796</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>519.6654289391822</v>
+        <v>519.6740626407865</v>
       </c>
       <c r="C3" t="n">
-        <v>6.378339997134052</v>
+        <v>6.378103106851958</v>
       </c>
       <c r="D3" t="n">
-        <v>3465.663331001776</v>
+        <v>3465.687409034341</v>
       </c>
       <c r="E3" t="n">
-        <v>57.59594062452901</v>
+        <v>57.60165275245132</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.4233760587</v>
+        <v>283.4195692846466</v>
       </c>
       <c r="C4" t="n">
-        <v>6.754526773869262</v>
+        <v>6.754143587016773</v>
       </c>
       <c r="D4" t="n">
-        <v>2775.759715993484</v>
+        <v>2775.76450708259</v>
       </c>
       <c r="E4" t="n">
-        <v>57.59594062452901</v>
+        <v>57.60165275245132</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.3016915076316</v>
+        <v>282.2951884430846</v>
       </c>
       <c r="C5" t="n">
-        <v>6.754526773869262</v>
+        <v>6.754143587016773</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.901725937042</v>
+        <v>1248.867312653887</v>
       </c>
       <c r="E5" t="n">
-        <v>57.59594062452901</v>
+        <v>57.60165275245132</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.1851840800486</v>
+        <v>159.1708348607017</v>
       </c>
       <c r="C6" t="n">
-        <v>6.754526773869262</v>
+        <v>6.754143587016773</v>
       </c>
       <c r="D6" t="n">
-        <v>675.565223104959</v>
+        <v>675.5031271655679</v>
       </c>
       <c r="E6" t="n">
-        <v>57.59594062452901</v>
+        <v>57.60165275245132</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152.4197680259131</v>
+        <v>152.413356299871</v>
       </c>
       <c r="C7" t="n">
-        <v>0.507862649830642</v>
+        <v>0.5077764839239749</v>
       </c>
       <c r="D7" t="n">
-        <v>642.6287962560564</v>
+        <v>642.6010864805032</v>
       </c>
       <c r="E7" t="n">
-        <v>57.59594062452901</v>
+        <v>57.60165275245132</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.8034750693939</v>
+        <v>166.7990690026766</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5016628579227284</v>
+        <v>0.5016111756610858</v>
       </c>
       <c r="D8" t="n">
-        <v>2782.801248167037</v>
+        <v>2782.797540285779</v>
       </c>
       <c r="E8" t="n">
-        <v>12.96392317159623</v>
+        <v>12.96338192221533</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>152.4197679142732</v>
+        <v>152.4133561882429</v>
       </c>
       <c r="C9" t="n">
-        <v>0.507862649830642</v>
+        <v>0.5077764839239749</v>
       </c>
       <c r="D9" t="n">
-        <v>2748.804019240855</v>
+        <v>2748.796467690064</v>
       </c>
       <c r="E9" t="n">
-        <v>12.96392317159623</v>
+        <v>12.96338192221533</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.1831049200837</v>
+        <v>149.178288018917</v>
       </c>
       <c r="C10" t="n">
-        <v>0.507862649830642</v>
+        <v>0.5077764839239749</v>
       </c>
       <c r="D10" t="n">
-        <v>628.6815335408451</v>
+        <v>628.660744365897</v>
       </c>
       <c r="E10" t="n">
-        <v>70.55986379612524</v>
+        <v>70.56503467466665</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>149.1831049200837</v>
+        <v>149.178288018917</v>
       </c>
       <c r="C11" t="n">
-        <v>0.507862649830642</v>
+        <v>0.5077764839239749</v>
       </c>
       <c r="D11" t="n">
-        <v>628.6815335408451</v>
+        <v>628.660744365897</v>
       </c>
       <c r="E11" t="n">
-        <v>83.10637646059556</v>
+        <v>83.09769851194966</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.507862649830642</v>
+        <v>0.5077764839239749</v>
       </c>
       <c r="D12" t="n">
-        <v>251.5900831336023</v>
+        <v>251.5900107794051</v>
       </c>
       <c r="E12" t="n">
-        <v>83.09741356787272</v>
+        <v>83.10369399771524</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.93559638924717</v>
+        <v>43.93633001234144</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>184.5872989083059</v>
+        <v>184.5903643695815</v>
       </c>
       <c r="E13" t="n">
-        <v>70.56892989289982</v>
+        <v>70.56428335851362</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.13411247692744</v>
+        <v>43.13493469363925</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>181.2383373416036</v>
+        <v>181.2417728767802</v>
       </c>
       <c r="E14" t="n">
-        <v>58.75571232239638</v>
+        <v>58.75112029862873</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>71.37884243078224</v>
+        <v>71.37528047173038</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03310904959543971</v>
+        <v>0.03310399622423527</v>
       </c>
       <c r="D15" t="n">
-        <v>298.8449663895972</v>
+        <v>298.8300339593764</v>
       </c>
       <c r="E15" t="n">
-        <v>54.31221881932551</v>
+        <v>54.30748282107173</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.60762117561472</v>
+        <v>44.6075741902618</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03310867882998984</v>
+        <v>0.03310962614594676</v>
       </c>
       <c r="D16" t="n">
-        <v>186.8150873446681</v>
+        <v>186.8148917640885</v>
       </c>
       <c r="E16" t="n">
-        <v>54.3129891477292</v>
+        <v>54.31196068582993</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>577.2561303894197</v>
+        <v>577.2565652220435</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>72.71748217938338</v>
+        <v>72.71753695564631</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.68457501558743</v>
+        <v>57.68471432941604</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>241.5253155902646</v>
+        <v>241.525898897265</v>
       </c>
       <c r="E19" t="n">
-        <v>72.71748217938338</v>
+        <v>72.71753695564631</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.93441349008418</v>
+        <v>97.93184560789456</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09416018790455184</v>
+        <v>0.09416298930859167</v>
       </c>
       <c r="D20" t="n">
-        <v>2650.623497463993</v>
+        <v>2650.630414561949</v>
       </c>
       <c r="E20" t="n">
-        <v>23.70631203136581</v>
+        <v>23.70991735696006</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.51961098056339</v>
+        <v>96.52042693176674</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08945217850932424</v>
+        <v>0.08945483984316208</v>
       </c>
       <c r="D21" t="n">
-        <v>404.4917405487364</v>
+        <v>404.4951792026333</v>
       </c>
       <c r="E21" t="n">
-        <v>23.70631203136581</v>
+        <v>23.70991735696006</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.39377847041727</v>
+        <v>69.39044413646907</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>290.5517504556371</v>
+        <v>290.537789599396</v>
       </c>
       <c r="E22" t="n">
-        <v>577.2561303894197</v>
+        <v>577.2565652220435</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>381.87174259587</v>
       </c>
       <c r="E23" t="n">
-        <v>577.2561303894197</v>
+        <v>577.2565652220435</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.39228099171871</v>
+        <v>40.392298541209</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>577.2561303894197</v>
+        <v>577.2565652220435</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.58060982800282</v>
+        <v>72.57701931905643</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03485163115309443</v>
+        <v>0.0348463118149845</v>
       </c>
       <c r="D25" t="n">
-        <v>2530.431371981061</v>
+        <v>2530.433804874407</v>
       </c>
       <c r="E25" t="n">
-        <v>30.60571944900409</v>
+        <v>30.60172112828767</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>516.7856789428361</v>
+        <v>516.7944464633637</v>
       </c>
       <c r="C26" t="n">
-        <v>5.748859494207922</v>
+        <v>5.748544402960084</v>
       </c>
       <c r="D26" t="n">
-        <v>3465.663331001776</v>
+        <v>3465.687409034341</v>
       </c>
       <c r="E26" t="n">
-        <v>45.79066856293714</v>
+        <v>45.78780336266125</v>
       </c>
       <c r="F26" t="n">
-        <v>6.955931585986542</v>
+        <v>6.955986320977552</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>199.0640495066797</v>
+        <v>199.070706630634</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3764824624204518</v>
+        <v>0.3764624716921877</v>
       </c>
       <c r="D27" t="n">
-        <v>2860.152551040242</v>
+        <v>2860.167457035635</v>
       </c>
       <c r="E27" t="n">
-        <v>45.79066856293714</v>
+        <v>45.78780336266125</v>
       </c>
       <c r="F27" t="n">
-        <v>7.198048810648508</v>
+        <v>7.198104390824462</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>164.2588923523639</v>
+        <v>164.2564260716492</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4243115252942789</v>
+        <v>0.4242875408813993</v>
       </c>
       <c r="D28" t="n">
-        <v>2782.801248167037</v>
+        <v>2782.797540285779</v>
       </c>
       <c r="E28" t="n">
-        <v>12.96392317159623</v>
+        <v>12.96338192221533</v>
       </c>
       <c r="F28" t="n">
-        <v>6.974027177194188</v>
+        <v>6.974043947937655</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>190.9144005885058</v>
+        <v>190.9188923999191</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3764824624204518</v>
+        <v>0.3764624716921877</v>
       </c>
       <c r="D29" t="n">
-        <v>2843.085351387118</v>
+        <v>2843.095873283663</v>
       </c>
       <c r="E29" t="n">
-        <v>58.75459173453336</v>
+        <v>58.75118528487658</v>
       </c>
       <c r="F29" t="n">
-        <v>7.161590025950218</v>
+        <v>7.161636674539792</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.93374351934199</v>
+        <v>97.93184076408579</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09416427648516004</v>
+        <v>0.09415780066322095</v>
       </c>
       <c r="D30" t="n">
-        <v>2650.622246029736</v>
+        <v>2650.630405515569</v>
       </c>
       <c r="E30" t="n">
-        <v>58.75459173453336</v>
+        <v>58.75118528487658</v>
       </c>
       <c r="F30" t="n">
-        <v>7.320645674099076</v>
+        <v>7.320698635097907</v>
       </c>
       <c r="G30" t="n">
-        <v>99.04167535059648</v>
+        <v>99.04217188564427</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>72.57783117664184</v>
+        <v>72.57726498142023</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03484751452184273</v>
+        <v>0.03484667574187875</v>
       </c>
       <c r="D31" t="n">
-        <v>2530.423091456745</v>
+        <v>2530.434609149414</v>
       </c>
       <c r="E31" t="n">
-        <v>35.04809236421195</v>
+        <v>35.04542359209253</v>
       </c>
       <c r="F31" t="n">
-        <v>7.42668161188003</v>
+        <v>7.426725475808143</v>
       </c>
       <c r="G31" t="n">
-        <v>95.69891207562563</v>
+        <v>95.69945111896413</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.66708060729263</v>
+        <v>42.65339440656248</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008501711052404444</v>
+        <v>0.008495628351251165</v>
       </c>
       <c r="D32" t="n">
-        <v>2530.423091456745</v>
+        <v>2530.434609149414</v>
       </c>
       <c r="E32" t="n">
-        <v>4.442723174667176</v>
+        <v>4.439159612798797</v>
       </c>
       <c r="F32" t="n">
-        <v>8.054379160264242</v>
+        <v>8.054738370360566</v>
       </c>
       <c r="G32" t="n">
-        <v>98.00595310090209</v>
+        <v>98.00747716273715</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.79348068139353</v>
+        <v>24.79214728848467</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003131111543608234</v>
+        <v>0.003130862269834397</v>
       </c>
       <c r="D33" t="n">
-        <v>2525.868308584045</v>
+        <v>2525.904329138433</v>
       </c>
       <c r="E33" t="n">
-        <v>4.442723174667176</v>
+        <v>4.439159612798797</v>
       </c>
       <c r="F33" t="n">
-        <v>8.493059499833716</v>
+        <v>8.493216777382635</v>
       </c>
       <c r="G33" t="n">
-        <v>99.17028607559652</v>
+        <v>99.17186100075772</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.79348068139353</v>
+        <v>24.79214728848467</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003131111543608234</v>
+        <v>0.003130862269834397</v>
       </c>
       <c r="D34" t="n">
-        <v>103.965596315666</v>
+        <v>103.9600202546387</v>
       </c>
       <c r="E34" t="n">
-        <v>4.442723174667176</v>
+        <v>4.439159612798797</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.81626340101684</v>
+        <v>26.81492912392395</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>113.0616919626736</v>
+        <v>113.0561160618618</v>
       </c>
       <c r="E35" t="n">
-        <v>4.442723174667176</v>
+        <v>4.439159612798797</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>504.6650103457804</v>
+        <v>504.6719213415408</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3478.536023814884</v>
+        <v>3478.551280076078</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16422236484067</v>
+        <v>10.16420462341058</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>201.2441175284285</v>
       </c>
       <c r="E41" t="n">
-        <v>11.81321757050344</v>
+        <v>11.81316305988489</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>519.6650103457804</v>
+        <v>519.6719213415408</v>
       </c>
       <c r="C42" t="n">
-        <v>6.378087266310201</v>
+        <v>6.378095496708688</v>
       </c>
       <c r="D42" t="n">
-        <v>3465.662415211313</v>
+        <v>3465.682388628413</v>
       </c>
       <c r="E42" t="n">
-        <v>11.81321757050344</v>
+        <v>11.81316305988489</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97397508643659</v>
+        <v>11.9739541861223</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97397508643659</v>
+        <v>11.9739541861223</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97397508643659</v>
+        <v>11.9739541861223</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97397508643659</v>
+        <v>11.9739541861223</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762719265459943</v>
+        <v>4.762710952236574</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3400,22 +3400,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944161</v>
+        <v>0.05094889585944183</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.09767435453489635</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173055</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.897004485173541</v>
+        <v>1.89521192238812</v>
       </c>
       <c r="C2" t="n">
-        <v>2.14861877690182</v>
+        <v>2.146592644411446</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8828948650951048</v>
+        <v>0.8828931410541337</v>
       </c>
       <c r="E2" t="n">
-        <v>0.207008037744721</v>
+        <v>0.2072131821245173</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>120.9027041820272</v>
+        <v>120.9006377382422</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.04631468520015</v>
+        <v>31.04613538887635</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.206415906062682</v>
+        <v>6.206411521524551</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.26782132673611</v>
+        <v>43.26542608576879</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.72674343650415</v>
+        <v>27.7254284942848</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8485677297013453</v>
+        <v>0.8485675325846821</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.30809117923347</v>
+        <v>11.30757435778374</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7653032425270919</v>
+        <v>0.7652992400000644</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.212751071574367</v>
+        <v>4.212312597640824</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7662892276170253</v>
+        <v>0.766299882343939</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02023563942412295</v>
+        <v>0.02011063605941334</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03367509230505169</v>
+        <v>0.03351505860082202</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04041143492995001</v>
+        <v>0.04037902114157335</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04529330748131705</v>
+        <v>0.04525705083219766</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8922164703167074</v>
+        <v>0.8922150338803366</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39740.00447839312</v>
+        <v>39736.90625915727</v>
       </c>
       <c r="C2" t="n">
-        <v>40141.41866504356</v>
+        <v>40138.28915066391</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87947.32320477199</v>
+        <v>87950.84976732834</v>
       </c>
       <c r="C3" t="n">
-        <v>88835.6800048202</v>
+        <v>88839.24218922055</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33024.01403542367</v>
+        <v>33024.85765282712</v>
       </c>
       <c r="C4" t="n">
-        <v>33357.58993477139</v>
+        <v>33358.44207356274</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>440.7876952004312</v>
+        <v>440.7810648245562</v>
       </c>
       <c r="C5" t="n">
-        <v>445.2400961620517</v>
+        <v>445.233398812683</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28287.7552406364</v>
+        <v>28287.62231539149</v>
       </c>
       <c r="C6" t="n">
-        <v>28573.49014205697</v>
+        <v>28573.35587413282</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31338.70416154078</v>
+        <v>31333.71004403514</v>
       </c>
       <c r="C7" t="n">
-        <v>31655.25672882907</v>
+        <v>31650.21216569206</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.71502529006305</v>
+        <v>52.72312399489615</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70.09579048348792</v>
+        <v>70.08774187232628</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.023771922460548</v>
+        <v>6.023818876665828</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34697.0286013896</v>
+        <v>34697.12310623788</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3866.254990270797</v>
+        <v>3866.218489194967</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22559.48254742415</v>
+        <v>22559.28810257517</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.785139478813</v>
+        <v>7875.771392466353</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.898296696299</v>
+        <v>5689.888365102001</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21121.10691011256</v>
+        <v>21121.07004367769</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38553.04533655847</v>
+        <v>38552.94829044101</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7566510845216506</v>
+        <v>0.7566381519992424</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>464.9632650835048</v>
+        <v>464.9675480044655</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>870.5363469217989</v>
+        <v>870.5411952428838</v>
       </c>
       <c r="E6" t="n">
         <v>519.9939154519999</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.3218488762816</v>
+        <v>304.3265576190157</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.0971808719219</v>
+        <v>692.1023134060598</v>
       </c>
       <c r="E7" t="n">
         <v>519.9939154519999</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232.478045467295</v>
+        <v>232.4980793589923</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4052147545883</v>
+        <v>614.4267144489223</v>
       </c>
       <c r="E8" t="n">
         <v>519.9939154519999</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.5582034038109</v>
+        <v>231.5782126374132</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>613.4181655180834</v>
+        <v>613.4396347438877</v>
       </c>
       <c r="E9" t="n">
         <v>519.9939154519999</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.7720445674407</v>
+        <v>171.7794200816639</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.6378708309883</v>
+        <v>549.6456963784863</v>
       </c>
       <c r="E10" t="n">
         <v>519.9939154519999</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.8516324891712</v>
+        <v>100.8558009371407</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>474.8021536229844</v>
+        <v>474.8065305559719</v>
       </c>
       <c r="E11" t="n">
         <v>519.9939154519999</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508.3443085445946</v>
+        <v>508.3492302277497</v>
       </c>
       <c r="C3" t="n">
-        <v>7.74385954847789</v>
+        <v>7.744485826974905</v>
       </c>
       <c r="D3" t="n">
-        <v>3423.066823867916</v>
+        <v>3423.071495630857</v>
       </c>
       <c r="E3" t="n">
-        <v>63.69762602878954</v>
+        <v>63.69470015287529</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.0246032686388</v>
+        <v>296.02937090001</v>
       </c>
       <c r="C4" t="n">
-        <v>8.117166358654552</v>
+        <v>8.117718774468475</v>
       </c>
       <c r="D4" t="n">
-        <v>2756.929210718618</v>
+        <v>2756.920883253993</v>
       </c>
       <c r="E4" t="n">
-        <v>63.69762602878954</v>
+        <v>63.69470015287529</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.5860571649032</v>
+        <v>294.5717546619609</v>
       </c>
       <c r="C5" t="n">
-        <v>8.117166358654552</v>
+        <v>8.117718774468475</v>
       </c>
       <c r="D5" t="n">
-        <v>1314.828405557307</v>
+        <v>1314.74781374861</v>
       </c>
       <c r="E5" t="n">
-        <v>63.69762602878954</v>
+        <v>63.69470015287529</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.6342217253585</v>
+        <v>161.6394390786149</v>
       </c>
       <c r="C6" t="n">
-        <v>8.117166358654552</v>
+        <v>8.117718774468475</v>
       </c>
       <c r="D6" t="n">
-        <v>686.9340429496581</v>
+        <v>686.9568759070917</v>
       </c>
       <c r="E6" t="n">
-        <v>63.69762602878954</v>
+        <v>63.69470015287529</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.2873812012682</v>
+        <v>160.2924751840884</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6227666344434706</v>
+        <v>0.6228472047043599</v>
       </c>
       <c r="D7" t="n">
-        <v>676.7221287646909</v>
+        <v>676.7442643348145</v>
       </c>
       <c r="E7" t="n">
-        <v>63.69762602878954</v>
+        <v>63.69470015287529</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.0400698547646</v>
+        <v>174.0417687966299</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6164119137999218</v>
+        <v>0.6165181459345714</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.211596910566</v>
+        <v>2791.210022639112</v>
       </c>
       <c r="E8" t="n">
-        <v>15.18960298057746</v>
+        <v>15.19321417479608</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.287381074208</v>
+        <v>160.2924750570177</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6227666344434706</v>
+        <v>0.6228472047043599</v>
       </c>
       <c r="D9" t="n">
-        <v>2757.757123070616</v>
+        <v>2757.762712458082</v>
       </c>
       <c r="E9" t="n">
-        <v>15.18960298057746</v>
+        <v>15.19321417479608</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.7064733927497</v>
+        <v>156.7144850235342</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6227666344434706</v>
+        <v>0.6228472047043599</v>
       </c>
       <c r="D10" t="n">
-        <v>661.2140345778093</v>
+        <v>661.2487361551342</v>
       </c>
       <c r="E10" t="n">
-        <v>78.887229009367</v>
+        <v>78.88791432767137</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.7064733927497</v>
+        <v>156.7144850235342</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6227666344434706</v>
+        <v>0.6228472047043599</v>
       </c>
       <c r="D11" t="n">
-        <v>661.2140345778093</v>
+        <v>661.2487361551342</v>
       </c>
       <c r="E11" t="n">
-        <v>94.07177706061638</v>
+        <v>94.06815669565984</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6227666344434706</v>
+        <v>0.6228472047043599</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6865675447836</v>
+        <v>251.6866351983446</v>
       </c>
       <c r="E12" t="n">
-        <v>94.067955471102</v>
+        <v>94.06637271747339</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.1335100351651</v>
+        <v>41.13490256285587</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>172.8793690499609</v>
+        <v>172.8851871465568</v>
       </c>
       <c r="E13" t="n">
-        <v>72.78554360510766</v>
+        <v>72.7948669272524</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.1335100351651</v>
+        <v>41.13490256285587</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>172.8793690499609</v>
+        <v>172.8851871465568</v>
       </c>
       <c r="E14" t="n">
-        <v>72.78554360510766</v>
+        <v>72.7948669272524</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.4650234017933</v>
+        <v>70.47675753514807</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03183378178962731</v>
+        <v>0.03184989009896035</v>
       </c>
       <c r="D15" t="n">
-        <v>295.0143240202737</v>
+        <v>295.0635090310012</v>
       </c>
       <c r="E15" t="n">
-        <v>54.55967009046762</v>
+        <v>54.559982144193</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.47836529143598</v>
+        <v>44.48080620648807</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03183378178962416</v>
+        <v>0.03184989009895922</v>
       </c>
       <c r="D16" t="n">
-        <v>186.2736536636071</v>
+        <v>186.2838712982124</v>
       </c>
       <c r="E16" t="n">
-        <v>54.55967009046751</v>
+        <v>54.55998214419897</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.22234694771677</v>
+        <v>57.22938169229084</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>239.5899666700901</v>
+        <v>239.6194211456217</v>
       </c>
       <c r="E19" t="n">
         <v>72.59991284372333</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>105.953669771407</v>
+        <v>105.9674158324771</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09485260779401661</v>
+        <v>0.09484332620091389</v>
       </c>
       <c r="D20" t="n">
-        <v>2638.996938117802</v>
+        <v>2639.025288640167</v>
       </c>
       <c r="E20" t="n">
-        <v>24.73369693922579</v>
+        <v>24.72121013391724</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.72067893485192</v>
+        <v>96.71799184941139</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09010997740431577</v>
+        <v>0.09010115989086818</v>
       </c>
       <c r="D21" t="n">
-        <v>405.3391219029997</v>
+        <v>405.3277971379812</v>
       </c>
       <c r="E21" t="n">
-        <v>24.73369693922579</v>
+        <v>24.72121013391724</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.53828778551217</v>
+        <v>68.54932824218152</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>286.9698109579394</v>
+        <v>287.016037350014</v>
       </c>
       <c r="E22" t="n">
         <v>576.3228249761745</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.33405369967502</v>
+        <v>40.33493987287661</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.6594791488111</v>
+        <v>71.67130700624307</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03350924398908139</v>
+        <v>0.03352620010416879</v>
       </c>
       <c r="D25" t="n">
-        <v>2508.43189949089</v>
+        <v>2508.457447352625</v>
       </c>
       <c r="E25" t="n">
-        <v>29.82597315124146</v>
+        <v>29.83877201027659</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>505.4272542464432</v>
+        <v>505.4326008821621</v>
       </c>
       <c r="C26" t="n">
-        <v>7.127868064452572</v>
+        <v>7.128585447904337</v>
       </c>
       <c r="D26" t="n">
-        <v>3423.066823867916</v>
+        <v>3423.071495630857</v>
       </c>
       <c r="E26" t="n">
-        <v>57.59594062452901</v>
+        <v>57.60165275245132</v>
       </c>
       <c r="F26" t="n">
-        <v>6.807101859232661</v>
+        <v>6.807063953381145</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.6724146492316</v>
+        <v>188.6795285008698</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4640018036232853</v>
+        <v>0.4640747148788603</v>
       </c>
       <c r="D27" t="n">
-        <v>2833.458708752766</v>
+        <v>2833.46987667137</v>
       </c>
       <c r="E27" t="n">
-        <v>57.59594062452901</v>
+        <v>57.60165275245132</v>
       </c>
       <c r="F27" t="n">
-        <v>7.046693483866849</v>
+        <v>7.046647151127507</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.3793996835452</v>
+        <v>171.3819312836497</v>
       </c>
       <c r="C28" t="n">
-        <v>0.529663457840853</v>
+        <v>0.5297675937667022</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.211596910566</v>
+        <v>2791.210022639112</v>
       </c>
       <c r="E28" t="n">
-        <v>15.18960298057746</v>
+        <v>15.19321417479608</v>
       </c>
       <c r="F28" t="n">
-        <v>6.894330501847184</v>
+        <v>6.894239670993962</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184.5875035153116</v>
+        <v>184.5929832879226</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4640018036232853</v>
+        <v>0.4640747148788603</v>
       </c>
       <c r="D29" t="n">
-        <v>2824.642166013996</v>
+        <v>2824.649707881867</v>
       </c>
       <c r="E29" t="n">
-        <v>72.78554360510647</v>
+        <v>72.7948669272474</v>
       </c>
       <c r="F29" t="n">
-        <v>7.027517710997417</v>
+        <v>7.027463754240722</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>105.9536697714082</v>
+        <v>105.9674158324786</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1249491306006641</v>
+        <v>0.1250082556652917</v>
       </c>
       <c r="D30" t="n">
-        <v>2638.996938117803</v>
+        <v>2639.025288640175</v>
       </c>
       <c r="E30" t="n">
-        <v>72.78554360510647</v>
+        <v>72.7948669272474</v>
       </c>
       <c r="F30" t="n">
-        <v>7.163143353659683</v>
+        <v>7.16300806943347</v>
       </c>
       <c r="G30" t="n">
-        <v>97.95287585622519</v>
+        <v>97.95316036805534</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.65947914880883</v>
+        <v>71.67130700623869</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03350924398908021</v>
+        <v>0.03352620010416712</v>
       </c>
       <c r="D31" t="n">
-        <v>2508.431899490893</v>
+        <v>2508.45744735263</v>
       </c>
       <c r="E31" t="n">
-        <v>48.0518466658803</v>
+        <v>48.07365679333098</v>
       </c>
       <c r="F31" t="n">
-        <v>7.380075156151863</v>
+        <v>7.379929507264338</v>
       </c>
       <c r="G31" t="n">
-        <v>94.8260060799781</v>
+        <v>94.82617213298428</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>71.65947914880883</v>
+        <v>71.67130700623869</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03350924398908021</v>
+        <v>0.03352620010416712</v>
       </c>
       <c r="D32" t="n">
-        <v>2508.431899490893</v>
+        <v>2508.45744735263</v>
       </c>
       <c r="E32" t="n">
-        <v>18.22587351464015</v>
+        <v>18.23488478305343</v>
       </c>
       <c r="F32" t="n">
-        <v>7.380075156151863</v>
+        <v>7.379929507264338</v>
       </c>
       <c r="G32" t="n">
-        <v>94.8260060799781</v>
+        <v>94.82617213298428</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.51064264598705</v>
+        <v>29.51357082724479</v>
       </c>
       <c r="C33" t="n">
-        <v>0.004129116335863135</v>
+        <v>0.004129812997807156</v>
       </c>
       <c r="D33" t="n">
-        <v>2361.958814521196</v>
+        <v>2361.891507779724</v>
       </c>
       <c r="E33" t="n">
-        <v>18.22587351464015</v>
+        <v>18.23488478305343</v>
       </c>
       <c r="F33" t="n">
-        <v>7.825315829399214</v>
+        <v>7.825021898411867</v>
       </c>
       <c r="G33" t="n">
-        <v>92.07300397289808</v>
+        <v>92.06999513179713</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.51064264598705</v>
+        <v>29.51357082724479</v>
       </c>
       <c r="C34" t="n">
-        <v>0.004129116335863135</v>
+        <v>0.004129812997807156</v>
       </c>
       <c r="D34" t="n">
-        <v>123.688286376601</v>
+        <v>123.7005273559727</v>
       </c>
       <c r="E34" t="n">
-        <v>18.22587351464015</v>
+        <v>18.23488478305343</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.53613384927183</v>
+        <v>31.5390634504609</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>132.7831975807938</v>
+        <v>132.7954373747636</v>
       </c>
       <c r="E35" t="n">
-        <v>18.22587351464015</v>
+        <v>18.23488478305343</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>504.6650103457804</v>
+        <v>504.6719213415408</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3478.536023814884</v>
+        <v>3478.551280076078</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16422236484067</v>
+        <v>10.16420462341058</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>519.6650103457804</v>
+        <v>519.6719213415408</v>
       </c>
       <c r="C42" t="n">
-        <v>6.378087266310201</v>
+        <v>6.378095496708688</v>
       </c>
       <c r="D42" t="n">
-        <v>3465.662415211313</v>
+        <v>3465.682388628413</v>
       </c>
       <c r="E42" t="n">
-        <v>11.81321757050344</v>
+        <v>11.81316305988489</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=5, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=5, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>952.9657080173359</v>
       </c>
       <c r="E3" t="n">
-        <v>437.865119993407</v>
+        <v>437.9520667568624</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.58888412338459</v>
+        <v>13.58909413305389</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>545.9624381441208</v>
+        <v>545.9608830802702</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>970.3684163665491</v>
+        <v>970.3653261828646</v>
       </c>
       <c r="E5" t="n">
-        <v>451.4540041167916</v>
+        <v>451.5411608899163</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781442604617002</v>
+        <v>0.7781446429762571</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1201964193458126</v>
+        <v>0.1201970410213803</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0319618303363218</v>
+        <v>0.03196149997303194</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06313149013900457</v>
+        <v>0.06313082802316386</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006565999717160782</v>
+        <v>0.006565988006166893</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>468.3702689357435</v>
+        <v>468.3673294615236</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>881.4594936753239</v>
+        <v>881.4549010612096</v>
       </c>
       <c r="E6" t="n">
-        <v>451.4540041167916</v>
+        <v>451.5411608899163</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781442604617002</v>
+        <v>0.7781446429762571</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1201964193458126</v>
+        <v>0.1201970410213803</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0319618303363218</v>
+        <v>0.03196149997303194</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06313149013900457</v>
+        <v>0.06313082802316386</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006565999717160782</v>
+        <v>0.006565988006166893</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.4283860442722</v>
+        <v>291.4446928032245</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>684.674790518194</v>
+        <v>684.6913787906194</v>
       </c>
       <c r="E7" t="n">
-        <v>451.4540041167916</v>
+        <v>451.5411608899163</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781442604617002</v>
+        <v>0.7781446429762571</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1201964193458126</v>
+        <v>0.1201970410213803</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0319618303363218</v>
+        <v>0.03196149997303194</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06313149013900457</v>
+        <v>0.06313082802316386</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006565999717160782</v>
+        <v>0.006565988006166893</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.084814446554</v>
+        <v>223.1063542307979</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>610.7836703390209</v>
+        <v>610.8056469338599</v>
       </c>
       <c r="E8" t="n">
-        <v>451.4540041167916</v>
+        <v>451.5411608899163</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781442604617002</v>
+        <v>0.7781446429762571</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1201964193458126</v>
+        <v>0.1201970410213803</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0319618303363218</v>
+        <v>0.03196149997303194</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06313149013900457</v>
+        <v>0.06313082802316386</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006565999717160782</v>
+        <v>0.006565988006166893</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>222.1659859295893</v>
+        <v>222.187511334516</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>609.79744938461</v>
+        <v>609.8194066795709</v>
       </c>
       <c r="E9" t="n">
-        <v>451.4540041167916</v>
+        <v>451.5411608899163</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781442604617002</v>
+        <v>0.7781446429762571</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1201964193458126</v>
+        <v>0.1201970410213803</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0319618303363218</v>
+        <v>0.03196149997303194</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06313149013900457</v>
+        <v>0.06313082802316386</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006565999717160782</v>
+        <v>0.006565988006166893</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.8622149869096</v>
+        <v>162.8752561332246</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>546.5056065532839</v>
+        <v>546.5183301189288</v>
       </c>
       <c r="E10" t="n">
-        <v>451.4540041167916</v>
+        <v>451.5411608899163</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781442604617002</v>
+        <v>0.7781446429762571</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1201964193458126</v>
+        <v>0.1201970410213803</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0319618303363218</v>
+        <v>0.03196149997303194</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06313149013900457</v>
+        <v>0.06313082802316386</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006565999717160782</v>
+        <v>0.006565988006166893</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.49091596377905</v>
+        <v>96.49359992493497</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>476.3983267926106</v>
+        <v>476.4000527083618</v>
       </c>
       <c r="E11" t="n">
-        <v>451.4540041167916</v>
+        <v>451.5411608899163</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781442604617002</v>
+        <v>0.7781446429762571</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1201964193458126</v>
+        <v>0.1201970410213803</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0319618303363218</v>
+        <v>0.03196149997303194</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06313149013900457</v>
+        <v>0.06313082802316386</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006565999717160782</v>
+        <v>0.006565988006166893</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.88102614765921</v>
+        <v>12.88122521772391</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7078579757253848</v>
+        <v>0.7078689153299943</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.9739541861223</v>
+        <v>11.97396855516564</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.9739541861223</v>
+        <v>11.97396855516564</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.9739541861223</v>
+        <v>11.97396855516564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.9739541861223</v>
+        <v>11.97396855516564</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762710952236574</v>
+        <v>4.762716667608372</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944183</v>
+        <v>0.05094889585944179</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489635</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173055</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6504892318739794</v>
+        <v>0.6505160931065571</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6821034933346152</v>
+        <v>0.6821199150440543</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9536518112433607</v>
+        <v>0.9536682315814572</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.42401922626954</v>
+        <v>56.42777548283809</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.96202771758752</v>
+        <v>33.96482084783774</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8488228405132037</v>
+        <v>0.8488220602898289</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.51250489714659</v>
+        <v>13.5124675626166</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7831869661365564</v>
+        <v>0.7832005095857717</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.276873590303527</v>
+        <v>6.277374318301366</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.6357781784962211</v>
+        <v>0.6357803763865477</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.672613021231917</v>
+        <v>2.673112754082392</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.5210692569094577</v>
+        <v>0.5211096338864906</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1658446363048901</v>
+        <v>0.1658585320767262</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1844194837919969</v>
+        <v>0.184434740000618</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8992793651452955</v>
+        <v>0.8992803203787445</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42431.64267554267</v>
+        <v>42431.71000671171</v>
       </c>
       <c r="C2" t="n">
-        <v>42860.24512681078</v>
+        <v>42860.31313809264</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91859.26150685477</v>
+        <v>91857.14171101505</v>
       </c>
       <c r="C3" t="n">
-        <v>92787.13283520684</v>
+        <v>92784.99162728793</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39986.93044843319</v>
+        <v>39995.83466757525</v>
       </c>
       <c r="C4" t="n">
-        <v>40390.8388368012</v>
+        <v>40399.83299755077</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>508.1426862773067</v>
+        <v>508.1333468035571</v>
       </c>
       <c r="C5" t="n">
-        <v>513.2754406841482</v>
+        <v>513.2660068722799</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32840.73519480137</v>
+        <v>32835.27878204353</v>
       </c>
       <c r="C6" t="n">
-        <v>33172.45979272866</v>
+        <v>33166.94826469044</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38526.75175655862</v>
+        <v>38525.75303507358</v>
       </c>
       <c r="C7" t="n">
-        <v>38915.91086521073</v>
+        <v>38914.90205562989</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.66750801239905</v>
+        <v>54.66309218293522</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.0831154937558</v>
+        <v>68.08716313433095</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.875664941429796</v>
+        <v>5.876033130318497</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>519.6740626407865</v>
+        <v>519.6608302688526</v>
       </c>
       <c r="C3" t="n">
-        <v>6.378103106851958</v>
+        <v>6.379493181996381</v>
       </c>
       <c r="D3" t="n">
-        <v>3465.687409034341</v>
+        <v>3465.639743410553</v>
       </c>
       <c r="E3" t="n">
-        <v>57.60165275245132</v>
+        <v>57.60605049293642</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.4195692846466</v>
+        <v>283.4353080918644</v>
       </c>
       <c r="C4" t="n">
-        <v>6.754143587016773</v>
+        <v>6.755727950521054</v>
       </c>
       <c r="D4" t="n">
-        <v>2775.76450708259</v>
+        <v>2775.744695414459</v>
       </c>
       <c r="E4" t="n">
-        <v>57.60165275245132</v>
+        <v>57.60605049293642</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.2951884430846</v>
+        <v>282.2946716542291</v>
       </c>
       <c r="C5" t="n">
-        <v>6.754143587016773</v>
+        <v>6.755727950521054</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.867312653887</v>
+        <v>1248.863568441154</v>
       </c>
       <c r="E5" t="n">
-        <v>57.60165275245132</v>
+        <v>57.60605049293642</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.1708348607017</v>
+        <v>159.1769782835021</v>
       </c>
       <c r="C6" t="n">
-        <v>6.754143587016773</v>
+        <v>6.755727950521054</v>
       </c>
       <c r="D6" t="n">
-        <v>675.5031271655679</v>
+        <v>675.5305578681192</v>
       </c>
       <c r="E6" t="n">
-        <v>57.60165275245132</v>
+        <v>57.60605049293642</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152.413356299871</v>
+        <v>152.4236775173818</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5077764839239749</v>
+        <v>0.5079151944472603</v>
       </c>
       <c r="D7" t="n">
-        <v>642.6010864805032</v>
+        <v>642.6456920965078</v>
       </c>
       <c r="E7" t="n">
-        <v>57.60165275245132</v>
+        <v>57.60605049293642</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.7990690026766</v>
+        <v>166.8077587176655</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5016111756610858</v>
+        <v>0.5017539680232379</v>
       </c>
       <c r="D8" t="n">
-        <v>2782.797540285779</v>
+        <v>2782.807219430433</v>
       </c>
       <c r="E8" t="n">
-        <v>12.96338192221533</v>
+        <v>12.96737094290163</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>152.4133561882429</v>
+        <v>152.4236774057343</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5077764839239749</v>
+        <v>0.5079151944472603</v>
       </c>
       <c r="D9" t="n">
-        <v>2748.796467690064</v>
+        <v>2748.808623530788</v>
       </c>
       <c r="E9" t="n">
-        <v>12.96338192221533</v>
+        <v>12.96737094290163</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.178288018917</v>
+        <v>149.1857958247913</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5077764839239749</v>
+        <v>0.5079151944472603</v>
       </c>
       <c r="D10" t="n">
-        <v>628.660744365897</v>
+        <v>628.6931499236343</v>
       </c>
       <c r="E10" t="n">
-        <v>70.56503467466665</v>
+        <v>70.57342143583806</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>149.178288018917</v>
+        <v>149.1857958247913</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5077764839239749</v>
+        <v>0.5079151944472603</v>
       </c>
       <c r="D11" t="n">
-        <v>628.660744365897</v>
+        <v>628.6931499236343</v>
       </c>
       <c r="E11" t="n">
-        <v>83.09769851194966</v>
+        <v>83.11966236322222</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5077764839239749</v>
+        <v>0.5079151944472603</v>
       </c>
       <c r="D12" t="n">
-        <v>251.5900107794051</v>
+        <v>251.5901272557408</v>
       </c>
       <c r="E12" t="n">
-        <v>83.10369399771524</v>
+        <v>83.11573503557993</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.93633001234144</v>
+        <v>43.93125634297957</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>184.5903643695815</v>
+        <v>184.5691639254984</v>
       </c>
       <c r="E13" t="n">
-        <v>70.56428335851362</v>
+        <v>70.5806270033415</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.13493469363925</v>
+        <v>43.12901108995646</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>181.2417728767802</v>
+        <v>181.2170218027574</v>
       </c>
       <c r="E14" t="n">
-        <v>58.75112029862873</v>
+        <v>58.76681754897811</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>71.37528047173038</v>
+        <v>71.37489599270236</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03310399622423527</v>
+        <v>0.03310345080064334</v>
       </c>
       <c r="D15" t="n">
-        <v>298.8300339593764</v>
+        <v>298.8284221484347</v>
       </c>
       <c r="E15" t="n">
-        <v>54.30748282107173</v>
+        <v>54.31759819070761</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.6075741902618</v>
+        <v>44.60558632790867</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03310962614594676</v>
+        <v>0.03309552819518215</v>
       </c>
       <c r="D16" t="n">
-        <v>186.8148917640885</v>
+        <v>186.8065697074367</v>
       </c>
       <c r="E16" t="n">
-        <v>54.31196068582993</v>
+        <v>54.31133333793836</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>577.2565652220435</v>
+        <v>577.2486332303965</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>72.71753695564631</v>
+        <v>72.71653775541114</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.68471432941604</v>
+        <v>57.67886969348434</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>241.525898897265</v>
+        <v>241.5014274066189</v>
       </c>
       <c r="E19" t="n">
-        <v>72.71753695564631</v>
+        <v>72.71653775541114</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.93184560789456</v>
+        <v>97.93513753560552</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09416298930859167</v>
+        <v>0.09416309555263185</v>
       </c>
       <c r="D20" t="n">
-        <v>2650.630414561949</v>
+        <v>2650.6071647247</v>
       </c>
       <c r="E20" t="n">
-        <v>23.70991735696006</v>
+        <v>23.71024733176426</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.52042693176674</v>
+        <v>96.52045787458258</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08945483984316208</v>
+        <v>0.08945494077500026</v>
       </c>
       <c r="D21" t="n">
-        <v>404.4951792026333</v>
+        <v>404.4953096046013</v>
       </c>
       <c r="E21" t="n">
-        <v>23.70991735696006</v>
+        <v>23.71024733176426</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.39044413646907</v>
+        <v>69.3900678719552</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>290.537789599396</v>
+        <v>290.5362141798764</v>
       </c>
       <c r="E22" t="n">
-        <v>577.2565652220435</v>
+        <v>577.2486332303965</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>381.87174259587</v>
       </c>
       <c r="E23" t="n">
-        <v>577.2565652220435</v>
+        <v>577.2486332303965</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.392298541209</v>
+        <v>40.39156228708048</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>577.2565652220435</v>
+        <v>577.2486332303965</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.57701931905643</v>
+        <v>72.57663175835916</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0348463118149845</v>
+        <v>0.03484573768488773</v>
       </c>
       <c r="D25" t="n">
-        <v>2530.433804874407</v>
+        <v>2530.400689970607</v>
       </c>
       <c r="E25" t="n">
-        <v>30.60172112828767</v>
+        <v>30.6015060799814</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>516.7944464633637</v>
+        <v>516.7804695520319</v>
       </c>
       <c r="C26" t="n">
-        <v>5.748544402960084</v>
+        <v>5.749902197527877</v>
       </c>
       <c r="D26" t="n">
-        <v>3465.687409034341</v>
+        <v>3465.639743410553</v>
       </c>
       <c r="E26" t="n">
-        <v>45.78780336266125</v>
+        <v>45.79933412996262</v>
       </c>
       <c r="F26" t="n">
-        <v>6.955986320977552</v>
+        <v>6.955821473657716</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>199.070706630634</v>
+        <v>199.0596909617564</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3764624716921877</v>
+        <v>0.3765545598890671</v>
       </c>
       <c r="D27" t="n">
-        <v>2860.167457035635</v>
+        <v>2860.139818892652</v>
       </c>
       <c r="E27" t="n">
-        <v>45.78780336266125</v>
+        <v>45.79933412996262</v>
       </c>
       <c r="F27" t="n">
-        <v>7.198104390824462</v>
+        <v>7.197935250413321</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>164.2564260716492</v>
+        <v>164.2648058730275</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4242875408813993</v>
+        <v>0.4244090665419917</v>
       </c>
       <c r="D28" t="n">
-        <v>2782.797540285779</v>
+        <v>2782.807219430433</v>
       </c>
       <c r="E28" t="n">
-        <v>12.96338192221533</v>
+        <v>12.96737094290163</v>
       </c>
       <c r="F28" t="n">
-        <v>6.974043947937655</v>
+        <v>6.97393816480096</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>190.9188923999191</v>
+        <v>190.9116807675206</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3764624716921877</v>
+        <v>0.3765545598890671</v>
       </c>
       <c r="D29" t="n">
-        <v>2843.095873283663</v>
+        <v>2843.075726189785</v>
       </c>
       <c r="E29" t="n">
-        <v>58.75118528487658</v>
+        <v>58.76670507286426</v>
       </c>
       <c r="F29" t="n">
-        <v>7.161636674539792</v>
+        <v>7.161482827522318</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.93184076408579</v>
+        <v>97.93521301980945</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09415780066322095</v>
+        <v>0.09416927802395471</v>
       </c>
       <c r="D30" t="n">
-        <v>2650.630405515569</v>
+        <v>2650.607305581376</v>
       </c>
       <c r="E30" t="n">
-        <v>58.75118528487658</v>
+        <v>58.76670507286426</v>
       </c>
       <c r="F30" t="n">
-        <v>7.320698635097907</v>
+        <v>7.320581492687602</v>
       </c>
       <c r="G30" t="n">
-        <v>99.04217188564427</v>
+        <v>99.04090993551131</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>72.57726498142023</v>
+        <v>72.57661095241127</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03484667574187875</v>
+        <v>0.03484570686331219</v>
       </c>
       <c r="D31" t="n">
-        <v>2530.434609149414</v>
+        <v>2530.400537247489</v>
       </c>
       <c r="E31" t="n">
-        <v>35.04542359209253</v>
+        <v>35.05061296213803</v>
       </c>
       <c r="F31" t="n">
-        <v>7.426725475808143</v>
+        <v>7.426639110440716</v>
       </c>
       <c r="G31" t="n">
-        <v>95.69945111896413</v>
+        <v>95.69803751414803</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.65339440656248</v>
+        <v>42.71610209313565</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008495628351251165</v>
+        <v>0.008523528992440162</v>
       </c>
       <c r="D32" t="n">
-        <v>2530.434609149414</v>
+        <v>2530.400537247489</v>
       </c>
       <c r="E32" t="n">
-        <v>4.439159612798797</v>
+        <v>4.455484211039749</v>
       </c>
       <c r="F32" t="n">
-        <v>8.054738370360566</v>
+        <v>8.053152057191934</v>
       </c>
       <c r="G32" t="n">
-        <v>98.00747716273715</v>
+        <v>98.00127331108503</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.79214728848467</v>
+        <v>24.79826805046798</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003130862269834397</v>
+        <v>0.003132006670454122</v>
       </c>
       <c r="D33" t="n">
-        <v>2525.904329138433</v>
+        <v>2525.757773352619</v>
       </c>
       <c r="E33" t="n">
-        <v>4.439159612798797</v>
+        <v>4.455484211039749</v>
       </c>
       <c r="F33" t="n">
-        <v>8.493216777382635</v>
+        <v>8.492557898634361</v>
       </c>
       <c r="G33" t="n">
-        <v>99.17186100075772</v>
+        <v>99.1654009589577</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.79214728848467</v>
+        <v>24.79826805046798</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003130862269834397</v>
+        <v>0.003132006670454122</v>
       </c>
       <c r="D34" t="n">
-        <v>103.9600202546387</v>
+        <v>103.9856164166163</v>
       </c>
       <c r="E34" t="n">
-        <v>4.439159612798797</v>
+        <v>4.455484211039749</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.81492912392395</v>
+        <v>26.82105393792011</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>113.0561160618618</v>
+        <v>113.0817114570898</v>
       </c>
       <c r="E35" t="n">
-        <v>4.439159612798797</v>
+        <v>4.455484211039749</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>504.6719213415408</v>
+        <v>504.6575896974904</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3478.551280076078</v>
+        <v>3478.519642494268</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16420462341058</v>
+        <v>10.16421682070936</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>201.2441175284285</v>
       </c>
       <c r="E41" t="n">
-        <v>11.81316305988489</v>
+        <v>11.81380945436339</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>519.6719213415408</v>
+        <v>519.6575896974904</v>
       </c>
       <c r="C42" t="n">
-        <v>6.378095496708688</v>
+        <v>6.379765737658955</v>
       </c>
       <c r="D42" t="n">
-        <v>3465.682388628413</v>
+        <v>3465.626402572139</v>
       </c>
       <c r="E42" t="n">
-        <v>11.81316305988489</v>
+        <v>11.81380945436339</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.9739541861223</v>
+        <v>11.97396855516564</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.9739541861223</v>
+        <v>11.97396855516564</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.9739541861223</v>
+        <v>11.97396855516564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.9739541861223</v>
+        <v>11.97396855516564</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762710952236574</v>
+        <v>4.762716667608372</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944183</v>
+        <v>0.05094889585944179</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489635</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173055</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.89521192238812</v>
+        <v>1.894367238092885</v>
       </c>
       <c r="C2" t="n">
-        <v>2.146592644411446</v>
+        <v>2.145446042951161</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8828931410541337</v>
+        <v>0.8829712797097868</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2072131821245173</v>
+        <v>0.2073715074686973</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>120.9006377382422</v>
+        <v>120.9418048897099</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.04613538887635</v>
+        <v>31.04970795171072</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.206411521524551</v>
+        <v>6.206498869144008</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.26542608576879</v>
+        <v>43.27623494192647</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.7254284942848</v>
+        <v>27.73149335866247</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8485675325846821</v>
+        <v>0.8485681632339621</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.30757435778374</v>
+        <v>11.31073490973435</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7652992400000644</v>
+        <v>0.7652589181246804</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.212312597640824</v>
+        <v>4.213320912300459</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.766299882343939</v>
+        <v>0.7662645897438405</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02011063605941334</v>
+        <v>0.02068576122917807</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03351505860082202</v>
+        <v>0.03424802349071349</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04037902114157335</v>
+        <v>0.04052750783494659</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04525705083219766</v>
+        <v>0.0454231405818682</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8922150338803366</v>
+        <v>0.8922216147054387</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39736.90625915727</v>
+        <v>39745.24940890157</v>
       </c>
       <c r="C2" t="n">
-        <v>40138.28915066391</v>
+        <v>40146.71657464805</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87950.84976732834</v>
+        <v>87958.36097418268</v>
       </c>
       <c r="C3" t="n">
-        <v>88839.24218922055</v>
+        <v>88846.8292668512</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33024.85765282712</v>
+        <v>33028.82464444426</v>
       </c>
       <c r="C4" t="n">
-        <v>33358.44207356274</v>
+        <v>33362.44913580228</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>440.7810648245562</v>
+        <v>440.8747886446351</v>
       </c>
       <c r="C5" t="n">
-        <v>445.233398812683</v>
+        <v>445.3280693380153</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28287.62231539149</v>
+        <v>28297.21117981605</v>
       </c>
       <c r="C6" t="n">
-        <v>28573.35587413282</v>
+        <v>28583.04159577379</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31333.71004403514</v>
+        <v>31344.67549775292</v>
       </c>
       <c r="C7" t="n">
-        <v>31650.21216569206</v>
+        <v>31661.2883815686</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.72312399489615</v>
+        <v>52.72330894350834</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70.08774187232628</v>
+        <v>70.08764888100069</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.023818876665828</v>
+        <v>6.021956622244835</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34697.12310623788</v>
+        <v>34696.84317240884</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3866.218489194967</v>
+        <v>3867.947129296924</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22559.28810257517</v>
+        <v>22559.63674552415</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.771392466353</v>
+        <v>7875.78084358824</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.888365102001</v>
+        <v>5689.895193109795</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21121.07004367769</v>
+        <v>21121.09538948795</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38552.94829044101</v>
+        <v>38554.7185554829</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7566381519992424</v>
+        <v>0.7568957903210277</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>464.9675480044655</v>
+        <v>464.9674324647821</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>870.5411952428838</v>
+        <v>870.5410644504267</v>
       </c>
       <c r="E6" t="n">
         <v>519.9939154519999</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.3265576190157</v>
+        <v>304.3302153767444</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.1023134060598</v>
+        <v>692.1063003693212</v>
       </c>
       <c r="E7" t="n">
         <v>519.9939154519999</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232.4980793589923</v>
+        <v>232.4856770931831</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4267144489223</v>
+        <v>614.4134047468145</v>
       </c>
       <c r="E8" t="n">
         <v>519.9939154519999</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.5782126374132</v>
+        <v>231.5658249656349</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>613.4396347438877</v>
+        <v>613.4263431839381</v>
       </c>
       <c r="E9" t="n">
         <v>519.9939154519999</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.7794200816639</v>
+        <v>171.776882571037</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.6456963784863</v>
+        <v>549.6430040349398</v>
       </c>
       <c r="E10" t="n">
         <v>519.9939154519999</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.8558009371407</v>
+        <v>100.8550844690462</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>474.8065305559719</v>
+        <v>474.8057782535507</v>
       </c>
       <c r="E11" t="n">
         <v>519.9939154519999</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508.3492302277497</v>
+        <v>508.3475764221622</v>
       </c>
       <c r="C3" t="n">
-        <v>7.744485826974905</v>
+        <v>7.744944585431545</v>
       </c>
       <c r="D3" t="n">
-        <v>3423.071495630857</v>
+        <v>3423.062099236824</v>
       </c>
       <c r="E3" t="n">
-        <v>63.69470015287529</v>
+        <v>63.69347744366316</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.02937090001</v>
+        <v>296.0332431754892</v>
       </c>
       <c r="C4" t="n">
-        <v>8.117718774468475</v>
+        <v>8.11816746842133</v>
       </c>
       <c r="D4" t="n">
-        <v>2756.920883253993</v>
+        <v>2756.914118960205</v>
       </c>
       <c r="E4" t="n">
-        <v>63.69470015287529</v>
+        <v>63.69347744366316</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.5717546619609</v>
+        <v>294.5959125327763</v>
       </c>
       <c r="C5" t="n">
-        <v>8.117718774468475</v>
+        <v>8.11816746842133</v>
       </c>
       <c r="D5" t="n">
-        <v>1314.74781374861</v>
+        <v>1314.88255400405</v>
       </c>
       <c r="E5" t="n">
-        <v>63.69470015287529</v>
+        <v>63.69347744366316</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.6394390786149</v>
+        <v>161.6388002617828</v>
       </c>
       <c r="C6" t="n">
-        <v>8.117718774468475</v>
+        <v>8.11816746842133</v>
       </c>
       <c r="D6" t="n">
-        <v>686.9568759070917</v>
+        <v>686.9543842375551</v>
       </c>
       <c r="E6" t="n">
-        <v>63.69470015287529</v>
+        <v>63.69347744366316</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.2924751840884</v>
+        <v>160.2917596192545</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6228472047043599</v>
+        <v>0.6228358862920302</v>
       </c>
       <c r="D7" t="n">
-        <v>676.7442643348145</v>
+        <v>676.7411548895118</v>
       </c>
       <c r="E7" t="n">
-        <v>63.69470015287529</v>
+        <v>63.69347744366316</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.0417687966299</v>
+        <v>174.0405064316856</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6165181459345714</v>
+        <v>0.6164927571019275</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.210022639112</v>
+        <v>2791.207818749543</v>
       </c>
       <c r="E8" t="n">
-        <v>15.19321417479608</v>
+        <v>15.19059246791883</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.2924750570177</v>
+        <v>160.2917594921852</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6228472047043599</v>
+        <v>0.6228358862920302</v>
       </c>
       <c r="D9" t="n">
-        <v>2757.762712458082</v>
+        <v>2757.761927319059</v>
       </c>
       <c r="E9" t="n">
-        <v>15.19321417479608</v>
+        <v>15.19059246791883</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.7144850235342</v>
+        <v>156.7124795913521</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6228472047043599</v>
+        <v>0.6228358862920302</v>
       </c>
       <c r="D10" t="n">
-        <v>661.2487361551342</v>
+        <v>661.2400550692191</v>
       </c>
       <c r="E10" t="n">
-        <v>78.88791432767137</v>
+        <v>78.88406991158199</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.7144850235342</v>
+        <v>156.7124795913521</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6228472047043599</v>
+        <v>0.6228358862920302</v>
       </c>
       <c r="D11" t="n">
-        <v>661.2487361551342</v>
+        <v>661.2400550692191</v>
       </c>
       <c r="E11" t="n">
-        <v>94.06815669565984</v>
+        <v>94.06769989166928</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6228472047043599</v>
+        <v>0.6228358862920302</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6866351983446</v>
+        <v>251.6866256945066</v>
       </c>
       <c r="E12" t="n">
-        <v>94.06637271747339</v>
+        <v>94.06174051331848</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.13490256285587</v>
+        <v>41.13515897860486</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>172.8851871465568</v>
+        <v>172.8862584729794</v>
       </c>
       <c r="E13" t="n">
-        <v>72.7948669272524</v>
+        <v>72.79664296085565</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.13490256285587</v>
+        <v>41.13515897860486</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>172.8851871465568</v>
+        <v>172.8862584729794</v>
       </c>
       <c r="E14" t="n">
-        <v>72.7948669272524</v>
+        <v>72.79664296085565</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.47675753514807</v>
+        <v>70.47870209170247</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03184989009896035</v>
+        <v>0.03185256020036406</v>
       </c>
       <c r="D15" t="n">
-        <v>295.0635090310012</v>
+        <v>295.0716598786685</v>
       </c>
       <c r="E15" t="n">
-        <v>54.559982144193</v>
+        <v>54.56022993836586</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.48080620648807</v>
+        <v>44.48124304697836</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03184989009895922</v>
+        <v>0.03185256020036473</v>
       </c>
       <c r="D16" t="n">
-        <v>186.2838712982124</v>
+        <v>186.2856997199815</v>
       </c>
       <c r="E16" t="n">
-        <v>54.55998214419897</v>
+        <v>54.56022993836353</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.22938169229084</v>
+        <v>57.23059293623267</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>239.6194211456217</v>
+        <v>239.6244926240062</v>
       </c>
       <c r="E19" t="n">
         <v>72.59991284372333</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>105.9674158324771</v>
+        <v>105.9697178700196</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09484332620091389</v>
+        <v>0.09484178690193876</v>
       </c>
       <c r="D20" t="n">
-        <v>2639.025288640167</v>
+        <v>2639.021421493788</v>
       </c>
       <c r="E20" t="n">
-        <v>24.72121013391724</v>
+        <v>24.71923527330827</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.71799184941139</v>
+        <v>96.71754646198723</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09010115989086818</v>
+        <v>0.09009969755684182</v>
       </c>
       <c r="D21" t="n">
-        <v>405.3277971379812</v>
+        <v>405.3259200456228</v>
       </c>
       <c r="E21" t="n">
-        <v>24.72121013391724</v>
+        <v>24.71923527330827</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.54932824218152</v>
+        <v>68.5511582102516</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>287.016037350014</v>
+        <v>287.0236994263234</v>
       </c>
       <c r="E22" t="n">
         <v>576.3228249761745</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.33493987287661</v>
+        <v>40.33509245438266</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.67130700624307</v>
+        <v>71.67326709496893</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03352620010416879</v>
+        <v>0.03352901073722533</v>
       </c>
       <c r="D25" t="n">
-        <v>2508.457447352625</v>
+        <v>2508.453351786327</v>
       </c>
       <c r="E25" t="n">
-        <v>29.83877201027659</v>
+        <v>29.8409946650556</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>505.4326008821621</v>
+        <v>505.4312041077455</v>
       </c>
       <c r="C26" t="n">
-        <v>7.128585447904337</v>
+        <v>7.129104579929235</v>
       </c>
       <c r="D26" t="n">
-        <v>3423.071495630857</v>
+        <v>3423.062099236824</v>
       </c>
       <c r="E26" t="n">
-        <v>57.60165275245132</v>
+        <v>57.60605049293642</v>
       </c>
       <c r="F26" t="n">
-        <v>6.807063953381145</v>
+        <v>6.807020115103933</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.6795285008698</v>
+        <v>188.6738386735585</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4640747148788603</v>
+        <v>0.4640856898632346</v>
       </c>
       <c r="D27" t="n">
-        <v>2833.46987667137</v>
+        <v>2833.457004681653</v>
       </c>
       <c r="E27" t="n">
-        <v>57.60165275245132</v>
+        <v>57.60605049293642</v>
       </c>
       <c r="F27" t="n">
-        <v>7.046647151127507</v>
+        <v>7.046608665945714</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.3819312836497</v>
+        <v>171.3805966721468</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5297675937667022</v>
+        <v>0.5297558990762081</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.210022639112</v>
+        <v>2791.207818749543</v>
       </c>
       <c r="E28" t="n">
-        <v>15.19321417479608</v>
+        <v>15.19059246791883</v>
       </c>
       <c r="F28" t="n">
-        <v>6.894239670993962</v>
+        <v>6.89424451511388</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184.5929832879226</v>
+        <v>184.5891673887539</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4640747148788603</v>
+        <v>0.4640856898632346</v>
       </c>
       <c r="D29" t="n">
-        <v>2824.649707881867</v>
+        <v>2824.640799160457</v>
       </c>
       <c r="E29" t="n">
-        <v>72.7948669272474</v>
+        <v>72.79664296085525</v>
       </c>
       <c r="F29" t="n">
-        <v>7.027463754240722</v>
+        <v>7.027433690913117</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>105.9674158324786</v>
+        <v>105.96971787002</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1250082556652917</v>
+        <v>0.1250181595289917</v>
       </c>
       <c r="D30" t="n">
-        <v>2639.025288640175</v>
+        <v>2639.021421493789</v>
       </c>
       <c r="E30" t="n">
-        <v>72.7948669272474</v>
+        <v>72.79664296085525</v>
       </c>
       <c r="F30" t="n">
-        <v>7.16300806943347</v>
+        <v>7.162962691398316</v>
       </c>
       <c r="G30" t="n">
-        <v>97.95316036805534</v>
+        <v>97.95282351226187</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.67130700623869</v>
+        <v>71.67326709496916</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03352620010416712</v>
+        <v>0.03352901073722585</v>
       </c>
       <c r="D31" t="n">
-        <v>2508.45744735263</v>
+        <v>2508.453351786328</v>
       </c>
       <c r="E31" t="n">
-        <v>48.07365679333098</v>
+        <v>48.07740768754499</v>
       </c>
       <c r="F31" t="n">
-        <v>7.379929507264338</v>
+        <v>7.379881216771563</v>
       </c>
       <c r="G31" t="n">
-        <v>94.82617213298428</v>
+        <v>94.82584199941768</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>71.67130700623869</v>
+        <v>71.67326709496916</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03352620010416712</v>
+        <v>0.03352901073722585</v>
       </c>
       <c r="D32" t="n">
-        <v>2508.45744735263</v>
+        <v>2508.453351786328</v>
       </c>
       <c r="E32" t="n">
-        <v>18.23488478305343</v>
+        <v>18.23641302249212</v>
       </c>
       <c r="F32" t="n">
-        <v>7.379929507264338</v>
+        <v>7.379881216771563</v>
       </c>
       <c r="G32" t="n">
-        <v>94.82617213298428</v>
+        <v>94.82584199941768</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.51357082724479</v>
+        <v>29.51404540771796</v>
       </c>
       <c r="C33" t="n">
-        <v>0.004129812997807156</v>
+        <v>0.004129925917844523</v>
       </c>
       <c r="D33" t="n">
-        <v>2361.891507779724</v>
+        <v>2361.872291641141</v>
       </c>
       <c r="E33" t="n">
-        <v>18.23488478305343</v>
+        <v>18.23641302249212</v>
       </c>
       <c r="F33" t="n">
-        <v>7.825021898411867</v>
+        <v>7.824946812640217</v>
       </c>
       <c r="G33" t="n">
-        <v>92.06999513179713</v>
+        <v>92.06916574021777</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.51357082724479</v>
+        <v>29.51404540771796</v>
       </c>
       <c r="C34" t="n">
-        <v>0.004129812997807156</v>
+        <v>0.004129925917844523</v>
       </c>
       <c r="D34" t="n">
-        <v>123.7005273559727</v>
+        <v>123.7025112935036</v>
       </c>
       <c r="E34" t="n">
-        <v>18.23488478305343</v>
+        <v>18.23641302249212</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.5390634504609</v>
+        <v>31.539538261985</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>132.7954373747636</v>
+        <v>132.7974211243</v>
       </c>
       <c r="E35" t="n">
-        <v>18.23488478305343</v>
+        <v>18.23641302249212</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>504.6719213415408</v>
+        <v>504.6575896974904</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3478.551280076078</v>
+        <v>3478.519642494268</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16420462341058</v>
+        <v>10.16421682070936</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>519.6719213415408</v>
+        <v>519.6575896974904</v>
       </c>
       <c r="C42" t="n">
-        <v>6.378095496708688</v>
+        <v>6.379765737658955</v>
       </c>
       <c r="D42" t="n">
-        <v>3465.682388628413</v>
+        <v>3465.626402572139</v>
       </c>
       <c r="E42" t="n">
-        <v>11.81316305988489</v>
+        <v>11.81380945436339</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=5, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=5, Volume=10x15x8.xlsx
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6505160931065571</v>
+        <v>0.6992608153164526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6821199150440543</v>
+        <v>0.7159787177078918</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9536682315814572</v>
+        <v>0.9766502802695598</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.42777548283809</v>
+        <v>63.6638016217234</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.96482084783774</v>
+        <v>37.16818270144092</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8488220602898289</v>
+        <v>0.8489137534455237</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.5124675626166</v>
+        <v>13.51052706792395</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7832005095857717</v>
+        <v>0.8134028778394963</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.277374318301366</v>
+        <v>8.11544671095643</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.6357803763865477</v>
+        <v>0.6486042535263828</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.673112754082392</v>
+        <v>4.869645141402112</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.5211096338864906</v>
+        <v>0.6572473686650643</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1658585320767262</v>
+        <v>0.2193016433659672</v>
       </c>
       <c r="C12" t="n">
-        <v>0.184434740000618</v>
+        <v>0.2427937774080257</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8992803203787445</v>
+        <v>0.9032424377063876</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42431.71000671171</v>
+        <v>42241.52555570087</v>
       </c>
       <c r="C2" t="n">
-        <v>42860.31313809264</v>
+        <v>42668.20763202108</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91857.14171101505</v>
+        <v>89315.63861926684</v>
       </c>
       <c r="C3" t="n">
-        <v>92784.99162728793</v>
+        <v>90217.81678713823</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39995.83466757525</v>
+        <v>40658.40226112383</v>
       </c>
       <c r="C4" t="n">
-        <v>40399.83299755077</v>
+        <v>41069.09319305437</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>508.1333468035571</v>
+        <v>509.5831118407656</v>
       </c>
       <c r="C5" t="n">
-        <v>513.2660068722799</v>
+        <v>514.7304160007734</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32835.27878204353</v>
+        <v>33294.11755529127</v>
       </c>
       <c r="C6" t="n">
-        <v>33166.94826469044</v>
+        <v>33630.42177302148</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38525.75303507358</v>
+        <v>39325.80837243816</v>
       </c>
       <c r="C7" t="n">
-        <v>38914.90205562989</v>
+        <v>39723.03876003855</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.66309218293522</v>
+        <v>39.29607784814946</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.08716313433095</v>
+        <v>82.20651355126341</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.876033130318497</v>
+        <v>7.123697048171768</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>464.9674324647821</v>
+        <v>465.2937748272789</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>870.5410644504267</v>
+        <v>870.9105024387627</v>
       </c>
       <c r="E6" t="n">
         <v>519.9939154519999</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.3302153767444</v>
+        <v>309.1957339650233</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.1063003693212</v>
+        <v>697.4126708175653</v>
       </c>
       <c r="E7" t="n">
         <v>519.9939154519999</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232.4856770931831</v>
+        <v>236.2295398003802</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4134047468145</v>
+        <v>618.4327212976648</v>
       </c>
       <c r="E8" t="n">
         <v>519.9939154519999</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.5658249656349</v>
+        <v>235.3077662397098</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>613.4263431839381</v>
+        <v>617.4428435304349</v>
       </c>
       <c r="E9" t="n">
         <v>519.9939154519999</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.776882571037</v>
+        <v>174.721611086158</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.6430040349398</v>
+        <v>552.7681987438924</v>
       </c>
       <c r="E10" t="n">
         <v>519.9939154519999</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.8550844690462</v>
+        <v>102.351179996566</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>474.8057782535507</v>
+        <v>476.3768457306371</v>
       </c>
       <c r="E11" t="n">
         <v>519.9939154519999</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508.3475764221622</v>
+        <v>507.1997147430393</v>
       </c>
       <c r="C3" t="n">
-        <v>7.744944585431545</v>
+        <v>8.388348229549013</v>
       </c>
       <c r="D3" t="n">
-        <v>3423.062099236824</v>
+        <v>3412.751433605961</v>
       </c>
       <c r="E3" t="n">
-        <v>63.69347744366316</v>
+        <v>63.48421235579225</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.0332431754892</v>
+        <v>301.1589943044908</v>
       </c>
       <c r="C4" t="n">
-        <v>8.11816746842133</v>
+        <v>8.729011748523311</v>
       </c>
       <c r="D4" t="n">
-        <v>2756.914118960205</v>
+        <v>2747.378456665728</v>
       </c>
       <c r="E4" t="n">
-        <v>63.69347744366316</v>
+        <v>63.48421235579225</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.5959125327763</v>
+        <v>299.2444789996121</v>
       </c>
       <c r="C5" t="n">
-        <v>8.11816746842133</v>
+        <v>8.729011748523311</v>
       </c>
       <c r="D5" t="n">
-        <v>1314.88255400405</v>
+        <v>1340.505752795098</v>
       </c>
       <c r="E5" t="n">
-        <v>63.69347744366316</v>
+        <v>63.48421235579225</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.6388002617828</v>
+        <v>164.5975273939341</v>
       </c>
       <c r="C6" t="n">
-        <v>8.11816746842133</v>
+        <v>8.729011748523311</v>
       </c>
       <c r="D6" t="n">
-        <v>686.9543842375551</v>
+        <v>700.0848810104828</v>
       </c>
       <c r="E6" t="n">
-        <v>63.69347744366316</v>
+        <v>63.48421235579225</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.2917596192545</v>
+        <v>163.1260199745135</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6228358862920302</v>
+        <v>0.6689687822137947</v>
       </c>
       <c r="D7" t="n">
-        <v>676.7411548895118</v>
+        <v>689.0701611396983</v>
       </c>
       <c r="E7" t="n">
-        <v>63.69347744366316</v>
+        <v>63.48421235579225</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.0405064316856</v>
+        <v>176.4886836573311</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6164927571019275</v>
+        <v>0.662799519178061</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.207818749543</v>
+        <v>2793.678774867821</v>
       </c>
       <c r="E8" t="n">
-        <v>15.19059246791883</v>
+        <v>15.50829269640105</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.2917594921852</v>
+        <v>163.1260198416011</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6228358862920302</v>
+        <v>0.6689687822137947</v>
       </c>
       <c r="D9" t="n">
-        <v>2757.761927319059</v>
+        <v>2760.828940503171</v>
       </c>
       <c r="E9" t="n">
-        <v>15.19059246791883</v>
+        <v>15.50829269640105</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.7124795913521</v>
+        <v>159.7321341514398</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6228358862920302</v>
+        <v>0.6689687822137947</v>
       </c>
       <c r="D10" t="n">
-        <v>661.2400550692191</v>
+        <v>674.3419010342707</v>
       </c>
       <c r="E10" t="n">
-        <v>78.88406991158199</v>
+        <v>78.99250505219329</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.7124795913521</v>
+        <v>159.7321341514398</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6228358862920302</v>
+        <v>0.6689687822137947</v>
       </c>
       <c r="D11" t="n">
-        <v>661.2400550692191</v>
+        <v>674.3419010342707</v>
       </c>
       <c r="E11" t="n">
-        <v>94.06769989166928</v>
+        <v>93.05314981668465</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6228358862920302</v>
+        <v>0.6689687822137947</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6866256945066</v>
+        <v>251.7253625427041</v>
       </c>
       <c r="E12" t="n">
-        <v>94.06174051331848</v>
+        <v>93.04882755447052</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.13515897860486</v>
+        <v>42.00513897147596</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>172.8862584729794</v>
+        <v>176.521158383869</v>
       </c>
       <c r="E13" t="n">
-        <v>72.79664296085565</v>
+        <v>78.99250505218933</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.13515897860486</v>
+        <v>42.00513897147596</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>172.8862584729794</v>
+        <v>176.521158383869</v>
       </c>
       <c r="E14" t="n">
-        <v>72.79664296085565</v>
+        <v>78.99250505218933</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.47870209170247</v>
+        <v>77.24667909698269</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03185256020036406</v>
+        <v>0.04236985187066653</v>
       </c>
       <c r="D15" t="n">
-        <v>295.0716598786685</v>
+        <v>323.4557680468596</v>
       </c>
       <c r="E15" t="n">
-        <v>54.56022993836586</v>
+        <v>54.8775836788875</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.48124304697836</v>
+        <v>45.92585656576148</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03185256020036473</v>
+        <v>0.04236985187066727</v>
       </c>
       <c r="D16" t="n">
-        <v>186.2856997199815</v>
+        <v>192.3338581224373</v>
       </c>
       <c r="E16" t="n">
-        <v>54.56022993836353</v>
+        <v>54.8775836788805</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.23059293623267</v>
+        <v>61.33507682567928</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>239.6244926240062</v>
+        <v>256.8099666691191</v>
       </c>
       <c r="E19" t="n">
         <v>72.59991284372333</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>105.9697178700196</v>
+        <v>113.5281877736569</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09484178690193876</v>
+        <v>0.08961238812681838</v>
       </c>
       <c r="D20" t="n">
-        <v>2639.021421493788</v>
+        <v>2649.647773055055</v>
       </c>
       <c r="E20" t="n">
-        <v>24.71923527330827</v>
+        <v>17.63465338777472</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.71754646198723</v>
+        <v>95.16760550797714</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09009969755684182</v>
+        <v>0.08513176872047745</v>
       </c>
       <c r="D21" t="n">
-        <v>405.3259200456228</v>
+        <v>398.7950313197957</v>
       </c>
       <c r="E21" t="n">
-        <v>24.71923527330827</v>
+        <v>17.63465338777472</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.5511582102516</v>
+        <v>74.91941717393087</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>287.0236994263234</v>
+        <v>313.6875997072486</v>
       </c>
       <c r="E22" t="n">
         <v>576.3228249761745</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.33509245438266</v>
+        <v>40.85213804016978</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.67326709496893</v>
+        <v>78.49600830774756</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03352901073722533</v>
+        <v>0.04459984407438582</v>
       </c>
       <c r="D25" t="n">
-        <v>2508.453351786327</v>
+        <v>2517.38358044052</v>
       </c>
       <c r="E25" t="n">
-        <v>29.8409946650556</v>
+        <v>37.24293029111004</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>505.4312041077455</v>
+        <v>504.5425276430401</v>
       </c>
       <c r="C26" t="n">
-        <v>7.129104579929235</v>
+        <v>7.827533889658789</v>
       </c>
       <c r="D26" t="n">
-        <v>3423.062099236824</v>
+        <v>3412.751433605961</v>
       </c>
       <c r="E26" t="n">
-        <v>57.60605049293642</v>
+        <v>63.48421235579225</v>
       </c>
       <c r="F26" t="n">
-        <v>6.807020115103933</v>
+        <v>6.753120303179239</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.6738386735585</v>
+        <v>187.0479608344525</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4640856898632346</v>
+        <v>0.5100256263362141</v>
       </c>
       <c r="D27" t="n">
-        <v>2833.457004681653</v>
+        <v>2827.280159375846</v>
       </c>
       <c r="E27" t="n">
-        <v>57.60605049293642</v>
+        <v>63.48421235579225</v>
       </c>
       <c r="F27" t="n">
-        <v>7.046608665945714</v>
+        <v>6.990920681760544</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.3805966721468</v>
+        <v>173.9573485258936</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5297558990762081</v>
+        <v>0.5784714497830401</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.207818749543</v>
+        <v>2793.678774867821</v>
       </c>
       <c r="E28" t="n">
-        <v>15.19059246791883</v>
+        <v>15.50829269640105</v>
       </c>
       <c r="F28" t="n">
-        <v>6.89424451511388</v>
+        <v>6.86077907239961</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184.5891673887539</v>
+        <v>184.0345601630853</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4640856898632346</v>
+        <v>0.5100256263362141</v>
       </c>
       <c r="D29" t="n">
-        <v>2824.640799160457</v>
+        <v>2820.683329643577</v>
       </c>
       <c r="E29" t="n">
-        <v>72.79664296085525</v>
+        <v>78.99250505219329</v>
       </c>
       <c r="F29" t="n">
-        <v>7.027433690913117</v>
+        <v>6.976538740825769</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>105.96971787002</v>
+        <v>113.528187773658</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1250181595289917</v>
+        <v>0.1612202709629428</v>
       </c>
       <c r="D30" t="n">
-        <v>2639.021421493789</v>
+        <v>2649.647773055049</v>
       </c>
       <c r="E30" t="n">
-        <v>72.79664296085525</v>
+        <v>78.99250505219329</v>
       </c>
       <c r="F30" t="n">
-        <v>7.162962691398316</v>
+        <v>7.078008345314226</v>
       </c>
       <c r="G30" t="n">
-        <v>97.95282351226187</v>
+        <v>97.89490024512635</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.67326709496916</v>
+        <v>78.49600830775103</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03352901073722585</v>
+        <v>0.04459984407438602</v>
       </c>
       <c r="D31" t="n">
-        <v>2508.453351786328</v>
+        <v>2517.383580440513</v>
       </c>
       <c r="E31" t="n">
-        <v>48.07740768754499</v>
+        <v>61.35785166441582</v>
       </c>
       <c r="F31" t="n">
-        <v>7.379881216771563</v>
+        <v>7.281784471066628</v>
       </c>
       <c r="G31" t="n">
-        <v>94.82584199941768</v>
+        <v>94.67462201675531</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>71.67326709496916</v>
+        <v>78.49600830775103</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03352901073722585</v>
+        <v>0.04459984407438602</v>
       </c>
       <c r="D32" t="n">
-        <v>2508.453351786328</v>
+        <v>2517.383580440513</v>
       </c>
       <c r="E32" t="n">
-        <v>18.23641302249212</v>
+        <v>24.11492137330883</v>
       </c>
       <c r="F32" t="n">
-        <v>7.379881216771563</v>
+        <v>7.281784471066628</v>
       </c>
       <c r="G32" t="n">
-        <v>94.82584199941768</v>
+        <v>94.67462201675531</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.51404540771796</v>
+        <v>31.36565373475099</v>
       </c>
       <c r="C33" t="n">
-        <v>0.004129925917844523</v>
+        <v>0.004591468582787291</v>
       </c>
       <c r="D33" t="n">
-        <v>2361.872291641141</v>
+        <v>2315.448642896326</v>
       </c>
       <c r="E33" t="n">
-        <v>18.23641302249212</v>
+        <v>24.11492137330883</v>
       </c>
       <c r="F33" t="n">
-        <v>7.824946812640217</v>
+        <v>7.627607398903102</v>
       </c>
       <c r="G33" t="n">
-        <v>92.06916574021777</v>
+        <v>90.00400140983142</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.51404540771796</v>
+        <v>31.36565373475099</v>
       </c>
       <c r="C34" t="n">
-        <v>0.004129925917844523</v>
+        <v>0.004591468582787291</v>
       </c>
       <c r="D34" t="n">
-        <v>123.7025112935036</v>
+        <v>131.4426619778446</v>
       </c>
       <c r="E34" t="n">
-        <v>18.23641302249212</v>
+        <v>24.11492137330883</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.539538261985</v>
+        <v>33.39197828064954</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>132.7974211243</v>
+        <v>140.5366847188309</v>
       </c>
       <c r="E35" t="n">
-        <v>18.23641302249212</v>
+        <v>24.11492137330883</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=5, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=5, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>952.9657080173359</v>
       </c>
       <c r="E3" t="n">
-        <v>437.9520667568624</v>
+        <v>437.9032273226921</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.58909413305389</v>
+        <v>13.58891353919376</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>545.9608830802702</v>
+        <v>545.9617173684592</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>970.3653261828646</v>
+        <v>970.366984058857</v>
       </c>
       <c r="E5" t="n">
-        <v>451.5411608899163</v>
+        <v>451.4921408618859</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781446429762571</v>
+        <v>0.77814443775812</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1201970410213803</v>
+        <v>0.120196707493938</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03196149997303194</v>
+        <v>0.03196167721213997</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06313082802316386</v>
+        <v>0.06313118324671509</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006565988006166893</v>
+        <v>0.006565994289086862</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>468.3673294615236</v>
+        <v>468.362256365946</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>881.4549010612096</v>
+        <v>881.4498130032654</v>
       </c>
       <c r="E6" t="n">
-        <v>451.5411608899163</v>
+        <v>451.4921408618859</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781446429762571</v>
+        <v>0.77814443775812</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1201970410213803</v>
+        <v>0.120196707493938</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03196149997303194</v>
+        <v>0.03196167721213997</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06313082802316386</v>
+        <v>0.06313118324671509</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006565988006166893</v>
+        <v>0.006565994289086862</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.4446928032245</v>
+        <v>291.4424065375239</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>684.6913787906194</v>
+        <v>684.6895182658673</v>
       </c>
       <c r="E7" t="n">
-        <v>451.5411608899163</v>
+        <v>451.4921408618859</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781446429762571</v>
+        <v>0.77814443775812</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1201970410213803</v>
+        <v>0.120196707493938</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03196149997303194</v>
+        <v>0.03196167721213997</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06313082802316386</v>
+        <v>0.06313118324671509</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006565988006166893</v>
+        <v>0.006565994289086862</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.1063542307979</v>
+        <v>223.3035158754547</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>610.8056469338599</v>
+        <v>611.0179084855038</v>
       </c>
       <c r="E8" t="n">
-        <v>451.5411608899163</v>
+        <v>451.4921408618859</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781446429762571</v>
+        <v>0.77814443775812</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1201970410213803</v>
+        <v>0.120196707493938</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03196149997303194</v>
+        <v>0.03196167721213997</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06313082802316386</v>
+        <v>0.06313118324671509</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006565988006166893</v>
+        <v>0.006565994289086862</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>222.187511334516</v>
+        <v>222.385010466819</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>609.8194066795709</v>
+        <v>610.0319914040396</v>
       </c>
       <c r="E9" t="n">
-        <v>451.5411608899163</v>
+        <v>451.4921408618859</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781446429762571</v>
+        <v>0.77814443775812</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1201970410213803</v>
+        <v>0.120196707493938</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03196149997303194</v>
+        <v>0.03196167721213997</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06313082802316386</v>
+        <v>0.06313118324671509</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006565988006166893</v>
+        <v>0.006565994289086862</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.8752561332246</v>
+        <v>163.2795039153054</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>546.5183301189288</v>
+        <v>546.9481045793239</v>
       </c>
       <c r="E10" t="n">
-        <v>451.5411608899163</v>
+        <v>451.4921408618859</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781446429762571</v>
+        <v>0.77814443775812</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1201970410213803</v>
+        <v>0.120196707493938</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03196149997303194</v>
+        <v>0.03196167721213997</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06313082802316386</v>
+        <v>0.06313118324671509</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006565988006166893</v>
+        <v>0.006565994289086862</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.49359992493497</v>
+        <v>96.68297991994085</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>476.4000527083618</v>
+        <v>476.599776203432</v>
       </c>
       <c r="E11" t="n">
-        <v>451.5411608899163</v>
+        <v>451.4921408618859</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781446429762571</v>
+        <v>0.77814443775812</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1201970410213803</v>
+        <v>0.120196707493938</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03196149997303194</v>
+        <v>0.03196167721213997</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06313082802316386</v>
+        <v>0.06313118324671509</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006565988006166893</v>
+        <v>0.006565994289086862</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.88122521772391</v>
+        <v>12.88105403117074</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7078689153299943</v>
+        <v>0.7078595080230291</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97396855516564</v>
+        <v>11.9738857492232</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97396855516564</v>
+        <v>11.9738857492232</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97396855516564</v>
+        <v>11.9738857492232</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97396855516564</v>
+        <v>11.9738857492232</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762716667608372</v>
+        <v>4.762683731056016</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1143,22 +1143,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338336</v>
+        <v>0.1686684666338337</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944179</v>
+        <v>0.05094889585944164</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6992608153164526</v>
+        <v>0.6992086990017921</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7159787177078918</v>
+        <v>0.7159406179530357</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9766502802695598</v>
+        <v>0.9766294598578829</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.6638016217234</v>
+        <v>63.66182373270168</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.16818270144092</v>
+        <v>37.16778414051242</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8489137534455237</v>
+        <v>0.8489134318796507</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.51052706792395</v>
+        <v>13.51052625816071</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8134028778394963</v>
+        <v>0.8133962413140683</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.11544671095643</v>
+        <v>8.114782476394746</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.6486042535263828</v>
+        <v>0.6485979554055061</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.869645141402112</v>
+        <v>4.868730857633803</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.6572473686650643</v>
+        <v>0.6572026140824906</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2193016433659672</v>
+        <v>0.2192812669900117</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2427937774080257</v>
+        <v>0.2427716550369736</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9032424377063876</v>
+        <v>0.903240812674839</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42241.52555570087</v>
+        <v>42241.46123618397</v>
       </c>
       <c r="C2" t="n">
-        <v>42668.20763202108</v>
+        <v>42668.14266281209</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89315.63861926684</v>
+        <v>89317.67425932136</v>
       </c>
       <c r="C3" t="n">
-        <v>90217.81678713823</v>
+        <v>90219.87298921349</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40658.40226112383</v>
+        <v>40657.65045666531</v>
       </c>
       <c r="C4" t="n">
-        <v>41069.09319305437</v>
+        <v>41068.33379461143</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>509.5831118407656</v>
+        <v>509.5821223681626</v>
       </c>
       <c r="C5" t="n">
-        <v>514.7304160007734</v>
+        <v>514.7294165334976</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33294.11755529127</v>
+        <v>33293.80392222874</v>
       </c>
       <c r="C6" t="n">
-        <v>33630.42177302148</v>
+        <v>33630.10497194823</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39325.80837243816</v>
+        <v>39324.08516749144</v>
       </c>
       <c r="C7" t="n">
-        <v>39723.03876003855</v>
+        <v>39721.29814898125</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.29607784814946</v>
+        <v>39.30131551346128</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.20651355126341</v>
+        <v>82.20170300329397</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.123697048171768</v>
+        <v>7.123269930829397</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>519.6608302688526</v>
+        <v>519.6570002465562</v>
       </c>
       <c r="C3" t="n">
-        <v>6.379493181996381</v>
+        <v>6.379144408208277</v>
       </c>
       <c r="D3" t="n">
-        <v>3465.639743410553</v>
+        <v>3465.631975020409</v>
       </c>
       <c r="E3" t="n">
-        <v>57.60605049293642</v>
+        <v>57.60617670577185</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.4353080918644</v>
+        <v>283.4339977089224</v>
       </c>
       <c r="C4" t="n">
-        <v>6.755727950521054</v>
+        <v>6.755596028610428</v>
       </c>
       <c r="D4" t="n">
-        <v>2775.744695414459</v>
+        <v>2775.746345227026</v>
       </c>
       <c r="E4" t="n">
-        <v>57.60605049293642</v>
+        <v>57.60617670577185</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.2946716542291</v>
+        <v>282.3299742687764</v>
       </c>
       <c r="C5" t="n">
-        <v>6.755727950521054</v>
+        <v>6.755596028610428</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.863568441154</v>
+        <v>1249.051777423708</v>
       </c>
       <c r="E5" t="n">
-        <v>57.60605049293642</v>
+        <v>57.60617670577185</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.1769782835021</v>
+        <v>159.619973067242</v>
       </c>
       <c r="C6" t="n">
-        <v>6.755727950521054</v>
+        <v>6.755596028610428</v>
       </c>
       <c r="D6" t="n">
-        <v>675.5305578681192</v>
+        <v>677.4407651648024</v>
       </c>
       <c r="E6" t="n">
-        <v>57.60605049293642</v>
+        <v>57.60617670577185</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152.4236775173818</v>
+        <v>152.8697770244723</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5079151944472603</v>
+        <v>0.5139395203705027</v>
       </c>
       <c r="D7" t="n">
-        <v>642.6456920965078</v>
+        <v>644.5739091397419</v>
       </c>
       <c r="E7" t="n">
-        <v>57.60605049293642</v>
+        <v>57.60617670577185</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.8077587176655</v>
+        <v>167.2774542151503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5017539680232379</v>
+        <v>0.5038449856937137</v>
       </c>
       <c r="D8" t="n">
-        <v>2782.807219430433</v>
+        <v>2783.425182428084</v>
       </c>
       <c r="E8" t="n">
-        <v>12.96737094290163</v>
+        <v>12.92511828503551</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>152.4236774057343</v>
+        <v>152.869776911982</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5079151944472603</v>
+        <v>0.5139395203705027</v>
       </c>
       <c r="D9" t="n">
-        <v>2748.808623530788</v>
+        <v>2749.333011467463</v>
       </c>
       <c r="E9" t="n">
-        <v>12.96737094290163</v>
+        <v>12.92511828503551</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.1857958247913</v>
+        <v>149.5951583836089</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5079151944472603</v>
+        <v>0.5139395203705027</v>
       </c>
       <c r="D10" t="n">
-        <v>628.6931499236343</v>
+        <v>630.4593249299168</v>
       </c>
       <c r="E10" t="n">
-        <v>70.57342143583806</v>
+        <v>70.53129499080737</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>149.1857958247913</v>
+        <v>149.5951583836089</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5079151944472603</v>
+        <v>0.5139395203705027</v>
       </c>
       <c r="D11" t="n">
-        <v>628.6931499236343</v>
+        <v>630.4593249299168</v>
       </c>
       <c r="E11" t="n">
-        <v>83.11966236322222</v>
+        <v>82.99571527988492</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5079151944472603</v>
+        <v>0.5139395203705027</v>
       </c>
       <c r="D12" t="n">
-        <v>251.5901272557408</v>
+        <v>251.5951859246301</v>
       </c>
       <c r="E12" t="n">
-        <v>83.11573503557993</v>
+        <v>82.99660336591697</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.93125634297957</v>
+        <v>43.94607979323257</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>184.5691639254984</v>
+        <v>184.6311040665173</v>
       </c>
       <c r="E13" t="n">
-        <v>70.5806270033415</v>
+        <v>70.53315885843925</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.12901108995646</v>
+        <v>43.14620123219782</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>181.2170218027574</v>
+        <v>181.288848785615</v>
       </c>
       <c r="E14" t="n">
-        <v>58.76681754897811</v>
+        <v>58.71974628496847</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>71.37489599270236</v>
+        <v>71.37526652140565</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03310345080064334</v>
+        <v>0.03310397643411318</v>
       </c>
       <c r="D15" t="n">
-        <v>298.8284221484347</v>
+        <v>298.8299754768654</v>
       </c>
       <c r="E15" t="n">
-        <v>54.31759819070761</v>
+        <v>54.2828853182361</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.60558632790867</v>
+        <v>44.61161502648451</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03309552819518215</v>
+        <v>0.03313907021943446</v>
       </c>
       <c r="D16" t="n">
-        <v>186.8065697074367</v>
+        <v>186.8318091525245</v>
       </c>
       <c r="E16" t="n">
-        <v>54.31133333793836</v>
+        <v>54.31080546816991</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>577.2486332303965</v>
+        <v>577.2537064079147</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>72.71653775541114</v>
+        <v>72.71717682821844</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.67886969348434</v>
+        <v>57.69676184838832</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>241.5014274066189</v>
+        <v>241.5763418592019</v>
       </c>
       <c r="E19" t="n">
-        <v>72.71653775541114</v>
+        <v>72.71717682821844</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.93513753560552</v>
+        <v>97.92666590376655</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09416309555263185</v>
+        <v>0.09416283441602402</v>
       </c>
       <c r="D20" t="n">
-        <v>2650.6071647247</v>
+        <v>2650.716640222673</v>
       </c>
       <c r="E20" t="n">
-        <v>23.71024733176426</v>
+        <v>23.70878425751258</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.52045787458258</v>
+        <v>96.52038182081998</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08945494077500026</v>
+        <v>0.08945469269522281</v>
       </c>
       <c r="D21" t="n">
-        <v>404.4953096046013</v>
+        <v>404.4949890920524</v>
       </c>
       <c r="E21" t="n">
-        <v>23.71024733176426</v>
+        <v>23.70878425751258</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.3900678719552</v>
+        <v>69.39053938503858</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>290.5362141798764</v>
+        <v>290.5381884051566</v>
       </c>
       <c r="E22" t="n">
-        <v>577.2486332303965</v>
+        <v>577.2537064079147</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>381.87174259587</v>
       </c>
       <c r="E23" t="n">
-        <v>577.2486332303965</v>
+        <v>577.2537064079147</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.39156228708048</v>
+        <v>40.39381617818165</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>577.2486332303965</v>
+        <v>577.2537064079147</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.57663175835916</v>
+        <v>72.577005256917</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03484573768488773</v>
+        <v>0.03484629098327703</v>
       </c>
       <c r="D25" t="n">
-        <v>2530.400689970607</v>
+        <v>2530.531418775852</v>
       </c>
       <c r="E25" t="n">
-        <v>30.6015060799814</v>
+        <v>30.59996258627771</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>516.7804695520319</v>
+        <v>516.7744808618661</v>
       </c>
       <c r="C26" t="n">
-        <v>5.749902197527877</v>
+        <v>5.749317475086023</v>
       </c>
       <c r="D26" t="n">
-        <v>3465.639743410553</v>
+        <v>3465.631975020409</v>
       </c>
       <c r="E26" t="n">
-        <v>45.79933412996262</v>
+        <v>45.79489768015286</v>
       </c>
       <c r="F26" t="n">
-        <v>6.955821473657716</v>
+        <v>6.955856640823623</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>199.0596909617564</v>
+        <v>199.0088819690044</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3765545598890671</v>
+        <v>0.3762875771652901</v>
       </c>
       <c r="D27" t="n">
-        <v>2860.139818892652</v>
+        <v>2860.047189793785</v>
       </c>
       <c r="E27" t="n">
-        <v>45.79933412996262</v>
+        <v>45.79489768015286</v>
       </c>
       <c r="F27" t="n">
-        <v>7.197935250413321</v>
+        <v>7.198059839362513</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>164.2648058730275</v>
+        <v>164.5251544551393</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4244090665419917</v>
+        <v>0.4238307352937826</v>
       </c>
       <c r="D28" t="n">
-        <v>2782.807219430433</v>
+        <v>2783.425182428084</v>
       </c>
       <c r="E28" t="n">
-        <v>12.96737094290163</v>
+        <v>12.92511828503551</v>
       </c>
       <c r="F28" t="n">
-        <v>6.97393816480096</v>
+        <v>6.975959596341775</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>190.9116807675206</v>
+        <v>190.9551748700932</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3765545598890671</v>
+        <v>0.3762875771652901</v>
       </c>
       <c r="D29" t="n">
-        <v>2843.075726189785</v>
+        <v>2843.181586265584</v>
       </c>
       <c r="E29" t="n">
-        <v>58.76670507286426</v>
+        <v>58.72001596518837</v>
       </c>
       <c r="F29" t="n">
-        <v>7.161482827522318</v>
+        <v>7.162031177684661</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.93521301980945</v>
+        <v>97.92633077457236</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09416927802395471</v>
+        <v>0.09413905009218493</v>
       </c>
       <c r="D30" t="n">
-        <v>2650.607305581376</v>
+        <v>2650.716013221985</v>
       </c>
       <c r="E30" t="n">
-        <v>58.76670507286426</v>
+        <v>58.72001596518837</v>
       </c>
       <c r="F30" t="n">
-        <v>7.320581492687602</v>
+        <v>7.32101902928597</v>
       </c>
       <c r="G30" t="n">
-        <v>99.04090993551131</v>
+        <v>99.0463499364856</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>72.57661095241127</v>
+        <v>72.57612684886482</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03484570686331219</v>
+        <v>0.03484498972695364</v>
       </c>
       <c r="D31" t="n">
-        <v>2530.400537247489</v>
+        <v>2530.52893825026</v>
       </c>
       <c r="E31" t="n">
-        <v>35.05061296213803</v>
+        <v>35.03709323322997</v>
       </c>
       <c r="F31" t="n">
-        <v>7.426639110440716</v>
+        <v>7.427019525548746</v>
       </c>
       <c r="G31" t="n">
-        <v>95.69803751414803</v>
+        <v>95.70359390406195</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.71610209313565</v>
+        <v>42.53704075516816</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008523528992440162</v>
+        <v>0.008444067391251194</v>
       </c>
       <c r="D32" t="n">
-        <v>2530.400537247489</v>
+        <v>2530.52893825026</v>
       </c>
       <c r="E32" t="n">
-        <v>4.455484211039749</v>
+        <v>4.408940816798555</v>
       </c>
       <c r="F32" t="n">
-        <v>8.053152057191934</v>
+        <v>8.057782412021853</v>
       </c>
       <c r="G32" t="n">
-        <v>98.00127331108503</v>
+        <v>98.02028340262416</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.79826805046798</v>
+        <v>24.78083516710069</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003132006670454122</v>
+        <v>0.003128748199325074</v>
       </c>
       <c r="D33" t="n">
-        <v>2525.757773352619</v>
+        <v>2526.205529633361</v>
       </c>
       <c r="E33" t="n">
-        <v>4.455484211039749</v>
+        <v>4.408940816798555</v>
       </c>
       <c r="F33" t="n">
-        <v>8.492557898634361</v>
+        <v>8.494536408186081</v>
       </c>
       <c r="G33" t="n">
-        <v>99.1654009589577</v>
+        <v>99.18504239748621</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.79826805046798</v>
+        <v>24.78083516710069</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003132006670454122</v>
+        <v>0.003128748199325074</v>
       </c>
       <c r="D34" t="n">
-        <v>103.9856164166163</v>
+        <v>103.9127145168687</v>
       </c>
       <c r="E34" t="n">
-        <v>4.455484211039749</v>
+        <v>4.408940816798555</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.82105393792011</v>
+        <v>26.8036095154639</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>113.0817114570898</v>
+        <v>113.0088117622125</v>
       </c>
       <c r="E35" t="n">
-        <v>4.455484211039749</v>
+        <v>4.408940816798555</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>504.6575896974904</v>
+        <v>504.6639984634738</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3478.519642494268</v>
+        <v>3478.53379005105</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16421682070936</v>
+        <v>10.16414653009943</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>201.2441175284285</v>
       </c>
       <c r="E41" t="n">
-        <v>11.81380945436339</v>
+        <v>11.81341257347079</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>519.6575896974904</v>
+        <v>519.6639984634738</v>
       </c>
       <c r="C42" t="n">
-        <v>6.379765737658955</v>
+        <v>6.378923478213828</v>
       </c>
       <c r="D42" t="n">
-        <v>3465.626402572139</v>
+        <v>3465.652395516306</v>
       </c>
       <c r="E42" t="n">
-        <v>11.81380945436339</v>
+        <v>11.81341257347079</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97396855516564</v>
+        <v>11.9738857492232</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97396855516564</v>
+        <v>11.9738857492232</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97396855516564</v>
+        <v>11.9738857492232</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97396855516564</v>
+        <v>11.9738857492232</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762716667608372</v>
+        <v>4.762683731056016</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3400,22 +3400,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338336</v>
+        <v>0.1686684666338337</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944179</v>
+        <v>0.05094889585944164</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.894367238092885</v>
+        <v>1.8933339159428</v>
       </c>
       <c r="C2" t="n">
-        <v>2.145446042951161</v>
+        <v>2.14498506272876</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8829712797097868</v>
+        <v>0.8826793010549828</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2073715074686973</v>
+        <v>0.2073760562806149</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>120.9418048897099</v>
+        <v>120.9186806202813</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.04970795171072</v>
+        <v>31.04770101089424</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.206498869144008</v>
+        <v>6.206449804542396</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.27623494192647</v>
+        <v>43.26434220191211</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.73149335866247</v>
+        <v>27.7326932761106</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8485681632339621</v>
+        <v>0.8485552774430356</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.31073490973435</v>
+        <v>11.30158152186923</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7652589181246804</v>
+        <v>0.7653856992343169</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.213320912300459</v>
+        <v>4.211005751213545</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7662645897438405</v>
+        <v>0.7663319780957433</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02068576122917807</v>
+        <v>0.01906165271874096</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03424802349071349</v>
+        <v>0.03215723864861283</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04052750783494659</v>
+        <v>0.0401041544185653</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0454231405818682</v>
+        <v>0.04494959181538501</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8922216147054387</v>
+        <v>0.8922028610021494</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39745.24940890157</v>
+        <v>39743.94988007888</v>
       </c>
       <c r="C2" t="n">
-        <v>40146.71657464805</v>
+        <v>40145.40391927159</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87958.36097418268</v>
+        <v>87947.3694405275</v>
       </c>
       <c r="C3" t="n">
-        <v>88846.8292668512</v>
+        <v>88835.72670760354</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33028.82464444426</v>
+        <v>32929.53129227299</v>
       </c>
       <c r="C4" t="n">
-        <v>33362.44913580228</v>
+        <v>33262.15282047776</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>440.8747886446351</v>
+        <v>440.6824756843521</v>
       </c>
       <c r="C5" t="n">
-        <v>445.3280693380153</v>
+        <v>445.1338138225778</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28297.21117981605</v>
+        <v>28197.06032521601</v>
       </c>
       <c r="C6" t="n">
-        <v>28583.04159577379</v>
+        <v>28481.87911637981</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31344.67549775292</v>
+        <v>31444.10021064151</v>
       </c>
       <c r="C7" t="n">
-        <v>31661.2883815686</v>
+        <v>31761.71738448638</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.72330894350834</v>
+        <v>52.72263267599748</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70.08764888100069</v>
+        <v>70.08395691105579</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.021956622244835</v>
+        <v>6.027457113997186</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34696.84317240884</v>
+        <v>34696.74702433758</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3867.947129296924</v>
+        <v>3867.054771786529</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22559.63674552415</v>
+        <v>22559.33693658595</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.78084358824</v>
+        <v>7875.726378650221</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.895193109795</v>
+        <v>5689.85584465722</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21121.09538948795</v>
+        <v>21120.94932661823</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38554.7185554829</v>
+        <v>38553.5863217122</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7568957903210277</v>
+        <v>0.756751070617194</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.2937748272789</v>
+        <v>465.2938851905687</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>870.9105024387627</v>
+        <v>870.9106273810112</v>
       </c>
       <c r="E6" t="n">
         <v>519.9939154519999</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>309.1957339650233</v>
+        <v>309.1922247155807</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>697.4126708175653</v>
+        <v>697.4088414787844</v>
       </c>
       <c r="E7" t="n">
         <v>519.9939154519999</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>236.2295398003802</v>
+        <v>236.2273340523573</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>618.4327212976648</v>
+        <v>618.4303523575932</v>
       </c>
       <c r="E8" t="n">
         <v>519.9939154519999</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>235.3077662397098</v>
+        <v>235.3055618658141</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>617.4428435304349</v>
+        <v>617.4404765124382</v>
       </c>
       <c r="E9" t="n">
         <v>519.9939154519999</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.721611086158</v>
+        <v>174.7199552300512</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>552.7681987438924</v>
+        <v>552.7664409658577</v>
       </c>
       <c r="E10" t="n">
         <v>519.9939154519999</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.351179996566</v>
+        <v>102.3526935910994</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>476.3768457306371</v>
+        <v>476.3784353207265</v>
       </c>
       <c r="E11" t="n">
         <v>519.9939154519999</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507.1997147430393</v>
+        <v>507.2004195574194</v>
       </c>
       <c r="C3" t="n">
-        <v>8.388348229549013</v>
+        <v>8.388043357308419</v>
       </c>
       <c r="D3" t="n">
-        <v>3412.751433605961</v>
+        <v>3412.758892036303</v>
       </c>
       <c r="E3" t="n">
-        <v>63.48421235579225</v>
+        <v>63.48295707231383</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301.1589943044908</v>
+        <v>301.155281683507</v>
       </c>
       <c r="C4" t="n">
-        <v>8.729011748523311</v>
+        <v>8.728556913793907</v>
       </c>
       <c r="D4" t="n">
-        <v>2747.378456665728</v>
+        <v>2747.385797402183</v>
       </c>
       <c r="E4" t="n">
-        <v>63.48421235579225</v>
+        <v>63.48295707231383</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>299.2444789996121</v>
+        <v>299.2418071497831</v>
       </c>
       <c r="C5" t="n">
-        <v>8.729011748523311</v>
+        <v>8.728556913793907</v>
       </c>
       <c r="D5" t="n">
-        <v>1340.505752795098</v>
+        <v>1340.49101599414</v>
       </c>
       <c r="E5" t="n">
-        <v>63.48421235579225</v>
+        <v>63.48295707231383</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.5975273939341</v>
+        <v>164.5958613405824</v>
       </c>
       <c r="C6" t="n">
-        <v>8.729011748523311</v>
+        <v>8.728556913793907</v>
       </c>
       <c r="D6" t="n">
-        <v>700.0848810104828</v>
+        <v>700.0774190852703</v>
       </c>
       <c r="E6" t="n">
-        <v>63.48421235579225</v>
+        <v>63.48295707231383</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.1260199745135</v>
+        <v>163.1244449082411</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6689687822137947</v>
+        <v>0.6689424118150753</v>
       </c>
       <c r="D7" t="n">
-        <v>689.0701611396983</v>
+        <v>689.063302364064</v>
       </c>
       <c r="E7" t="n">
-        <v>63.48421235579225</v>
+        <v>63.48295707231383</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.4886836573311</v>
+        <v>176.4869506390699</v>
       </c>
       <c r="C8" t="n">
-        <v>0.662799519178061</v>
+        <v>0.6627684803063439</v>
       </c>
       <c r="D8" t="n">
-        <v>2793.678774867821</v>
+        <v>2793.676529556936</v>
       </c>
       <c r="E8" t="n">
-        <v>15.50829269640105</v>
+        <v>15.50719448635465</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.1260198416011</v>
+        <v>163.1244447753323</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6689687822137947</v>
+        <v>0.6689424118150753</v>
       </c>
       <c r="D9" t="n">
-        <v>2760.828940503171</v>
+        <v>2760.827260070847</v>
       </c>
       <c r="E9" t="n">
-        <v>15.50829269640105</v>
+        <v>15.50719448635465</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.7321341514398</v>
+        <v>159.7261085627774</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6689687822137947</v>
+        <v>0.6689424118150753</v>
       </c>
       <c r="D10" t="n">
-        <v>674.3419010342707</v>
+        <v>674.3157687049464</v>
       </c>
       <c r="E10" t="n">
-        <v>78.99250505219329</v>
+        <v>78.99015155866849</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.7321341514398</v>
+        <v>159.7261085627774</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6689687822137947</v>
+        <v>0.6689424118150753</v>
       </c>
       <c r="D11" t="n">
-        <v>674.3419010342707</v>
+        <v>674.3157687049464</v>
       </c>
       <c r="E11" t="n">
-        <v>93.05314981668465</v>
+        <v>93.05481648018335</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6689687822137947</v>
+        <v>0.6689424118150753</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7253625427041</v>
+        <v>251.7253404001223</v>
       </c>
       <c r="E12" t="n">
-        <v>93.04882755447052</v>
+        <v>93.04685908226773</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.00513897147596</v>
+        <v>42.00481995689108</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>176.521158383869</v>
+        <v>176.5198254761334</v>
       </c>
       <c r="E13" t="n">
-        <v>78.99250505218933</v>
+        <v>78.99015155866786</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.00513897147596</v>
+        <v>42.00481995689108</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>176.521158383869</v>
+        <v>176.5198254761334</v>
       </c>
       <c r="E14" t="n">
-        <v>78.99250505218933</v>
+        <v>78.99015155866786</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.24667909698269</v>
+        <v>77.2443723647894</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04236985187066653</v>
+        <v>0.04236582291317956</v>
       </c>
       <c r="D15" t="n">
-        <v>323.4557680468596</v>
+        <v>323.4460883651966</v>
       </c>
       <c r="E15" t="n">
-        <v>54.8775836788875</v>
+        <v>54.87747184758403</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.92585656576148</v>
+        <v>45.92535861996475</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04236985187066727</v>
+        <v>0.04236582291318018</v>
       </c>
       <c r="D16" t="n">
-        <v>192.3338581224373</v>
+        <v>192.33177296204</v>
       </c>
       <c r="E16" t="n">
-        <v>54.8775836788805</v>
+        <v>54.87747184758344</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.33507682567928</v>
+        <v>61.33367172273002</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>256.8099666691191</v>
+        <v>256.8040835030706</v>
       </c>
       <c r="E19" t="n">
         <v>72.59991284372333</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>113.5281877736569</v>
+        <v>113.5257223336297</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08961238812681838</v>
+        <v>0.08961412935813566</v>
       </c>
       <c r="D20" t="n">
-        <v>2649.647773055055</v>
+        <v>2649.644252967131</v>
       </c>
       <c r="E20" t="n">
-        <v>17.63465338777472</v>
+        <v>17.63704888280696</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95.16760550797714</v>
+        <v>95.16813378704249</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08513176872047745</v>
+        <v>0.08513342289022888</v>
       </c>
       <c r="D21" t="n">
-        <v>398.7950313197957</v>
+        <v>398.7972568381669</v>
       </c>
       <c r="E21" t="n">
-        <v>17.63465338777472</v>
+        <v>17.63704888280696</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.91941717393087</v>
+        <v>74.91724662808871</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>313.6875997072486</v>
+        <v>313.6785116318075</v>
       </c>
       <c r="E22" t="n">
         <v>576.3228249761745</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.85213804016978</v>
+        <v>40.85196103806743</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.49600830774756</v>
+        <v>78.49368267059305</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04459984407438582</v>
+        <v>0.0445956030665048</v>
       </c>
       <c r="D25" t="n">
-        <v>2517.38358044052</v>
+        <v>2517.380648968704</v>
       </c>
       <c r="E25" t="n">
-        <v>37.24293029111004</v>
+        <v>37.24042296477665</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>504.5425276430401</v>
+        <v>504.5449120286959</v>
       </c>
       <c r="C26" t="n">
-        <v>7.827533889658789</v>
+        <v>7.827398403035559</v>
       </c>
       <c r="D26" t="n">
-        <v>3412.751433605961</v>
+        <v>3412.758892036303</v>
       </c>
       <c r="E26" t="n">
-        <v>63.48421235579225</v>
+        <v>63.48295707231383</v>
       </c>
       <c r="F26" t="n">
-        <v>6.753120303179239</v>
+        <v>6.753137397853257</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.0479608344525</v>
+        <v>187.0484828337024</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5100256263362141</v>
+        <v>0.5100082267672442</v>
       </c>
       <c r="D27" t="n">
-        <v>2827.280159375846</v>
+        <v>2827.282319195275</v>
       </c>
       <c r="E27" t="n">
-        <v>63.48421235579225</v>
+        <v>63.48295707231383</v>
       </c>
       <c r="F27" t="n">
-        <v>6.990920681760544</v>
+        <v>6.990940632206566</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.9573485258936</v>
+        <v>173.9555479263097</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5784714497830401</v>
+        <v>0.5784443566609589</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.678774867821</v>
+        <v>2793.676529556936</v>
       </c>
       <c r="E28" t="n">
-        <v>15.50829269640105</v>
+        <v>15.50719448635465</v>
       </c>
       <c r="F28" t="n">
-        <v>6.86077907239961</v>
+        <v>6.860794789307129</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184.0345601630853</v>
+        <v>184.0347942456609</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5100256263362141</v>
+        <v>0.5100082267672442</v>
       </c>
       <c r="D29" t="n">
-        <v>2820.683329643577</v>
+        <v>2820.684895269557</v>
       </c>
       <c r="E29" t="n">
-        <v>78.99250505219329</v>
+        <v>78.99015155866849</v>
       </c>
       <c r="F29" t="n">
-        <v>6.976538740825769</v>
+        <v>6.976557407693025</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>113.528187773658</v>
+        <v>113.5257223336286</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1612202709629428</v>
+        <v>0.1612071963100935</v>
       </c>
       <c r="D30" t="n">
-        <v>2649.647773055049</v>
+        <v>2649.64425296713</v>
       </c>
       <c r="E30" t="n">
-        <v>78.99250505219329</v>
+        <v>78.99015155866849</v>
       </c>
       <c r="F30" t="n">
-        <v>7.078008345314226</v>
+        <v>7.078035113309546</v>
       </c>
       <c r="G30" t="n">
-        <v>97.89490024512635</v>
+        <v>97.89491428780008</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.49600830775103</v>
+        <v>78.49368267058423</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04459984407438602</v>
+        <v>0.04459560306650496</v>
       </c>
       <c r="D31" t="n">
-        <v>2517.383580440513</v>
+        <v>2517.380648968706</v>
       </c>
       <c r="E31" t="n">
-        <v>61.35785166441582</v>
+        <v>61.35310267586111</v>
       </c>
       <c r="F31" t="n">
-        <v>7.281784471066628</v>
+        <v>7.28181731098632</v>
       </c>
       <c r="G31" t="n">
-        <v>94.67462201675531</v>
+        <v>94.67467758886018</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.49600830775103</v>
+        <v>78.49368267058423</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04459984407438602</v>
+        <v>0.04459560306650496</v>
       </c>
       <c r="D32" t="n">
-        <v>2517.383580440513</v>
+        <v>2517.380648968706</v>
       </c>
       <c r="E32" t="n">
-        <v>24.11492137330883</v>
+        <v>24.11267971108442</v>
       </c>
       <c r="F32" t="n">
-        <v>7.281784471066628</v>
+        <v>7.28181731098632</v>
       </c>
       <c r="G32" t="n">
-        <v>94.67462201675531</v>
+        <v>94.67467758886018</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>31.36565373475099</v>
+        <v>31.36496158022214</v>
       </c>
       <c r="C33" t="n">
-        <v>0.004591468582787291</v>
+        <v>0.004591288012102531</v>
       </c>
       <c r="D33" t="n">
-        <v>2315.448642896326</v>
+        <v>2315.464855453824</v>
       </c>
       <c r="E33" t="n">
-        <v>24.11492137330883</v>
+        <v>24.11267971108442</v>
       </c>
       <c r="F33" t="n">
-        <v>7.627607398903102</v>
+        <v>7.627676942018927</v>
       </c>
       <c r="G33" t="n">
-        <v>90.00400140983142</v>
+        <v>90.00472772894189</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.36565373475099</v>
+        <v>31.36496158022214</v>
       </c>
       <c r="C34" t="n">
-        <v>0.004591468582787291</v>
+        <v>0.004591288012102531</v>
       </c>
       <c r="D34" t="n">
-        <v>131.4426619778446</v>
+        <v>131.4397687164679</v>
       </c>
       <c r="E34" t="n">
-        <v>24.11492137330883</v>
+        <v>24.11267971108442</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33.39197828064954</v>
+        <v>33.39128584059273</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>140.5366847188309</v>
+        <v>140.5337918452705</v>
       </c>
       <c r="E35" t="n">
-        <v>24.11492137330883</v>
+        <v>24.11267971108442</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>504.6575896974904</v>
+        <v>504.6639984634738</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3478.519642494268</v>
+        <v>3478.53379005105</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16421682070936</v>
+        <v>10.16414653009943</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>519.6575896974904</v>
+        <v>519.6639984634738</v>
       </c>
       <c r="C42" t="n">
-        <v>6.379765737658955</v>
+        <v>6.378923478213828</v>
       </c>
       <c r="D42" t="n">
-        <v>3465.626402572139</v>
+        <v>3465.652395516306</v>
       </c>
       <c r="E42" t="n">
-        <v>11.81380945436339</v>
+        <v>11.81341257347079</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
